--- a/inputs/fr/LiST countries/BGD_databook.xlsx
+++ b/inputs/fr/LiST countries/BGD_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0BzU7J_ZlwMKeWXBzZEFyaElkX28\Optima Nutrition\Development\LiST Optima bridge\App\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF6BC40-3BA6-4CAF-A35A-7043FDD6E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4074458-28B4-4B96-AA23-FF0F52D438E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Données de l'année de référence</t>
   </si>
@@ -563,7 +563,7 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
-    <t>Année</t>
+    <t>année</t>
   </si>
   <si>
     <t>Nombre de naissances</t>
@@ -1028,7 +1028,7 @@
     <t>Méthode</t>
   </si>
   <si>
-    <t>efficacité</t>
+    <t>Efficacité</t>
   </si>
   <si>
     <t>Distribution</t>
@@ -1343,6 +1343,9 @@
     <t>Planification familiale - supérieur</t>
   </si>
   <si>
+    <t>efficacité</t>
+  </si>
+  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1394,6 +1397,9 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>Fraction touchée</t>
+  </si>
+  <si>
     <t>Efficacité à prévenir une mort</t>
   </si>
   <si>
@@ -1411,7 +1417,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1527,12 +1533,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1678,7 +1678,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,9 +1924,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2301,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2765,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eQwhegixl60HMlJR8z6uoOe5Yle0I7tFCYzTTXTXuoTGXFwqFGVj7pB7MJpelYSpPLe0niBjlUwsiWzuRkvGKg==" saltValue="j0ihlDInsunWUibZhP+YJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ghjhUeOjSu54joBj/6evx4SDOum03F8iG0XenhK4Pa/EwlZsPGOFRJixryTp+uMxjrhg9XtQ76Ucb9iWhxMXFQ==" saltValue="6XF2re2LSlNjO/MuSAZoeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3694,7 +3691,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nMZB9ovAFO8B6IQhBGOAqg00zzy15zLrtl3PBbou6tAufSumMP0ikp4zdFCq9uqRdk6zzbDk0lPImj8QHfizfA==" saltValue="77WUXacvqusnBje/6AdDYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBFqQ1iF93dEd59wJXA7pcbnXCVpV0RezbRViSZfi/bduF6KA5Dd9rCXSXyKq7O8MdVBMMat/LGYPQqJRLRvww==" saltValue="urH8ZbYbNH6KtG9hK5BoRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3708,7 +3705,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3844,7 +3841,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qyb5nuWFJHgXcyxWXRKwdgsoxA8ylaiP/78nsQ2BisB6jAeGqVR24k4nS5zAxp9cLx+fcxwhJYFQTPYl17BjXw==" saltValue="YaiEOdA/S7OEIsnB9aqBlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TsMTEjhQfsDbwsiN2V+FBa4JMAXczw+QDtstVKRV4SDzGYsfvINP0HeeyWi6mulLny3Nl6q79FdNypIwLaBXjg==" saltValue="Yw40EVFeXNYoZBE+C5fnYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3945,7 +3942,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yz4/ms8nwmcuHGbCXOJxw6LaoKSBXDutxKNbvnn/bkfwJzp6IRsgJnUHaLDDkV6FFCAJJ1AvER51s9WHa6PSCA==" saltValue="qi9HbfEB45btUXc3D/Ae/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t0CyKfEx1I874FzE9dsSxBS3LQMZrT9nU6A72sZRprGCfdri1/dbgM35oJr4+2q16z6w3OHbR3il2pah1Sl+Ew==" saltValue="j/CnLEAB8t4G00F9av2H6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4060,7 +4057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0cbPhgles/35rIWmE2TMXQeZfi4gPcq1teBriYUgp9j4gdt/8+3SMAtl55q5Q9pct173YkhG+D7mZF5OsMM7Nw==" saltValue="/Lo83NDeBoTjXhBhNk4/Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2cFkuka0oEeAi9H2OF1nLhHVawyD85c93XXPAC1Bg80GTVoFZpnkIF/09//41z/qu0tGgbxRDPZDegQQRN10SA==" saltValue="tiLNytLFgmF4TnAeaeFqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5821,7 +5818,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LKDG1D/LvR440iDGcYsh4ZuAgJKIwzoxygG9ZFx6CkD4SUDY+r++IIuqNETmozCU7c9x0jip0x37dMO0Q/RlDw==" saltValue="H6yAZe4Zy5CCM7j+BbRdrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+bxYXci6bnWo8YDlvguRL8pZC+EpiXWiZQ2y+CXge31/fxdRmZk5MZBv9kTDF1r/wxJTgrtAblgD83BwZ2Du9A==" saltValue="MQwBi5TN/eRjxZV8o0LR8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5856,7 +5853,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2O4m0WXTD9DFJY09SNnRWEPLg4jSDsXp7FoZxv0/P3ZgGhgoj34PdxBH7j7EY9ne7ABuD1Etr8Riu2jbKz+rFw==" saltValue="R60W6Mnm0PJCZ/ugLecmnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0PlOxcUVy+LSsKkrUd4raCgz2ElKDw8Mg2k3z+RW5mN0mDxikfsk2jm13Fc7vve7UF4J9LkOVPdRxmgrWvsD5w==" saltValue="1mEBSNNlA2Wx29udY7yn8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6062,7 +6059,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tc5Dc+rj4+qS9sFTcLbHTZENeLnVT2mVZ0MaD2SdguumJeNH9GV4OgWUseVEl2C0cExpjwoLkBcK+bgQft9Gig==" saltValue="2yD9n5At1XXbLIAjeU4mCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="85OjQu6BmVrfigLSUaRCwVbeeKO+ykTOFQFhNLUTAEZ5VQlAU1fC3xuefVNrN4PLCvLOmUerIgXbmFK363INHg==" saltValue="4TFXvF/atEdhqT7iaUNb5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7877,7 +7874,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5PYa2zm1r4/9GPXtrUnRbiGk9BCIdyh+2UGQCce7EftubCRYq9PG1RPIWPh8uVt4XtELWK/OcCYIiMpzyhA17A==" saltValue="9vmNRAE3QlGabf+uPWwx3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZKnPAUJhScrHU7iPo6k0Cz35vWKfdcryfAs+YenLA2BFdVXrYwJjHbC2rsyP52hFe4Q4h+44PfkXM6Gmf2AFxw==" saltValue="gmECP+wBJoL3RLMgtX6LkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8645,7 +8642,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aCxXe5vwZOf0qXV1QGsIcBTMw9eephIdMh0qC0mrjM/pv/5mPW7txC23aFHpj4mM7E4EI2jZXTDAGRUhNgMMGA==" saltValue="tfnGRLgUku5FK2z4m2lA6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="naYqbKOAbqCxPMk9FgI9KL20NaArNwSlh9KTgQEhwto/TEM+JrApyqClQs0IRVGtE8MC6fBvS1ny5mjVoZUSUQ==" saltValue="lxKrZTvhhSzjOQIrYgeOZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9020,7 +9017,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5SNpA1/HPzCbzlrUBzj8whfKZ4t3vdXeuP0XoS0SDZNp17FFywDOg8Z3QrtO/JYepe2FsA0lrJj3zdueIm2Tog==" saltValue="+/OKp618tncFKoeAhRnYjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jOqS/UWFPAMlf9HNSKkYtelE9OwgtQwDhh47HVszWP5YFZab13jcOHr/gFk5YcTAGDlZOu2zUe+5yz4gPqt0zA==" saltValue="o9G99qbtQnn5dXhD5gzw1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10110,7 +10107,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="59tgFZL193x7msuBksR8VoBDDceM0ljMEU97eRfuYyaaiUCxssW+dtJwfXgClynl6jaJEQjPfJ6uYWkIrUbtHQ==" saltValue="X9Cx/KZG2BxTpXQ8IlmqUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F7XnqcsfMF36HsHPq5glo44UkWbfoChY8CwFGqcmwyYulQZVzGfYBO47ByB1ETUpxkm1MIzw6Pvmuy8g5Ppqog==" saltValue="XvwOVbIWjwyJYz+XnK/toQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -10171,7 +10168,7 @@
       <c r="A2" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -10194,7 +10191,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="108"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>146</v>
       </c>
@@ -10216,7 +10213,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="108"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>147</v>
       </c>
@@ -10238,7 +10235,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -10262,7 +10259,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>146</v>
       </c>
@@ -10283,7 +10280,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>147</v>
       </c>
@@ -10304,7 +10301,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10327,7 +10324,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="108"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>146</v>
       </c>
@@ -10348,7 +10345,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>147</v>
       </c>
@@ -10369,7 +10366,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10392,7 +10389,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>146</v>
       </c>
@@ -10413,7 +10410,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>147</v>
       </c>
@@ -10434,7 +10431,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10457,7 +10454,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>146</v>
       </c>
@@ -10478,7 +10475,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="108"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>147</v>
       </c>
@@ -10532,7 +10529,7 @@
       <c r="A19" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10555,7 +10552,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="108"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>146</v>
       </c>
@@ -10576,7 +10573,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="108"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>147</v>
       </c>
@@ -10597,7 +10594,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10620,7 +10617,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>146</v>
       </c>
@@ -10641,7 +10638,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="108"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>147</v>
       </c>
@@ -10662,7 +10659,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10685,7 +10682,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>146</v>
       </c>
@@ -10706,7 +10703,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="108"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>147</v>
       </c>
@@ -10727,7 +10724,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10750,7 +10747,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="108"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>146</v>
       </c>
@@ -10771,7 +10768,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="108"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>147</v>
       </c>
@@ -10792,7 +10789,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10815,7 +10812,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="108"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>146</v>
       </c>
@@ -10836,7 +10833,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="108"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>147</v>
       </c>
@@ -10890,7 +10887,7 @@
       <c r="A36" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10913,7 +10910,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="108"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>146</v>
       </c>
@@ -10934,7 +10931,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>147</v>
       </c>
@@ -10955,7 +10952,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10978,7 +10975,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>146</v>
       </c>
@@ -10999,7 +10996,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>147</v>
       </c>
@@ -11020,7 +11017,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -11043,7 +11040,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="108"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>146</v>
       </c>
@@ -11064,7 +11061,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="108"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>147</v>
       </c>
@@ -11085,7 +11082,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -11108,7 +11105,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="108"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>146</v>
       </c>
@@ -11129,7 +11126,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="108"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>147</v>
       </c>
@@ -11150,7 +11147,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -11173,7 +11170,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="108"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>146</v>
       </c>
@@ -11194,7 +11191,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="108"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>147</v>
       </c>
@@ -11279,7 +11276,7 @@
       <c r="A55" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -11307,7 +11304,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="108"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>146</v>
       </c>
@@ -11333,7 +11330,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="108"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>147</v>
       </c>
@@ -11359,7 +11356,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11387,7 +11384,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="108"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>146</v>
       </c>
@@ -11413,7 +11410,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="108"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>147</v>
       </c>
@@ -11439,7 +11436,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11467,7 +11464,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="108"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>146</v>
       </c>
@@ -11493,7 +11490,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="108"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>147</v>
       </c>
@@ -11519,7 +11516,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11547,7 +11544,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="108"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>146</v>
       </c>
@@ -11573,7 +11570,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="108"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>147</v>
       </c>
@@ -11599,7 +11596,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11627,7 +11624,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="108"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>146</v>
       </c>
@@ -11653,7 +11650,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="108"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>147</v>
       </c>
@@ -11717,7 +11714,7 @@
       <c r="A72" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11745,7 +11742,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="108"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>146</v>
       </c>
@@ -11771,7 +11768,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="108"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>147</v>
       </c>
@@ -11797,7 +11794,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11825,7 +11822,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="108"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>146</v>
       </c>
@@ -11851,7 +11848,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="108"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>147</v>
       </c>
@@ -11877,7 +11874,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11905,7 +11902,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="108"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>146</v>
       </c>
@@ -11931,7 +11928,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="108"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>147</v>
       </c>
@@ -11957,7 +11954,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11985,7 +11982,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="108"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>146</v>
       </c>
@@ -12011,7 +12008,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>147</v>
       </c>
@@ -12037,7 +12034,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -12065,7 +12062,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="108"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>146</v>
       </c>
@@ -12091,7 +12088,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>147</v>
       </c>
@@ -12155,7 +12152,7 @@
       <c r="A89" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -12183,7 +12180,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="108"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>146</v>
       </c>
@@ -12209,7 +12206,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="108"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>147</v>
       </c>
@@ -12235,7 +12232,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -12263,7 +12260,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="108"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>146</v>
       </c>
@@ -12289,7 +12286,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="108"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>147</v>
       </c>
@@ -12315,7 +12312,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12343,7 +12340,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="108"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>146</v>
       </c>
@@ -12369,7 +12366,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="108"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>147</v>
       </c>
@@ -12395,7 +12392,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12423,7 +12420,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="108"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>146</v>
       </c>
@@ -12449,7 +12446,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="108"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>147</v>
       </c>
@@ -12475,7 +12472,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12503,7 +12500,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="108"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>146</v>
       </c>
@@ -12529,7 +12526,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="108"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>147</v>
       </c>
@@ -12624,7 +12621,7 @@
       <c r="A108" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12652,7 +12649,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="108"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="96" t="s">
         <v>146</v>
       </c>
@@ -12678,7 +12675,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="108"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="96" t="s">
         <v>147</v>
       </c>
@@ -12704,7 +12701,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12732,7 +12729,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="108"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="96" t="s">
         <v>146</v>
       </c>
@@ -12758,7 +12755,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="108"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="96" t="s">
         <v>147</v>
       </c>
@@ -12784,7 +12781,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12812,7 +12809,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="108"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="96" t="s">
         <v>146</v>
       </c>
@@ -12838,7 +12835,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="108"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="96" t="s">
         <v>147</v>
       </c>
@@ -12864,7 +12861,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12892,7 +12889,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="108"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="96" t="s">
         <v>146</v>
       </c>
@@ -12918,7 +12915,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="108"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="96" t="s">
         <v>147</v>
       </c>
@@ -12944,7 +12941,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12972,7 +12969,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="108"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="96" t="s">
         <v>146</v>
       </c>
@@ -12998,7 +12995,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="108"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="96" t="s">
         <v>147</v>
       </c>
@@ -13062,7 +13059,7 @@
       <c r="A125" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B125" s="107" t="s">
+      <c r="B125" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -13090,7 +13087,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="108"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="96" t="s">
         <v>146</v>
       </c>
@@ -13116,7 +13113,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="108"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="96" t="s">
         <v>147</v>
       </c>
@@ -13142,7 +13139,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="107" t="s">
+      <c r="B128" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -13170,7 +13167,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="108"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="96" t="s">
         <v>146</v>
       </c>
@@ -13196,7 +13193,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="108"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="96" t="s">
         <v>147</v>
       </c>
@@ -13222,7 +13219,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -13250,7 +13247,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="108"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="96" t="s">
         <v>146</v>
       </c>
@@ -13276,7 +13273,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="108"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="96" t="s">
         <v>147</v>
       </c>
@@ -13302,7 +13299,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="107" t="s">
+      <c r="B134" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13330,7 +13327,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="108"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="96" t="s">
         <v>146</v>
       </c>
@@ -13356,7 +13353,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="108"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="96" t="s">
         <v>147</v>
       </c>
@@ -13382,7 +13379,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="107" t="s">
+      <c r="B137" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13410,7 +13407,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="108"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="96" t="s">
         <v>146</v>
       </c>
@@ -13436,7 +13433,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="108"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="96" t="s">
         <v>147</v>
       </c>
@@ -13500,7 +13497,7 @@
       <c r="A142" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="B142" s="107" t="s">
+      <c r="B142" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13528,7 +13525,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="108"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="96" t="s">
         <v>146</v>
       </c>
@@ -13554,7 +13551,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="108"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="96" t="s">
         <v>147</v>
       </c>
@@ -13580,7 +13577,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="107" t="s">
+      <c r="B145" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13608,7 +13605,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="108"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="96" t="s">
         <v>146</v>
       </c>
@@ -13634,7 +13631,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="108"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="96" t="s">
         <v>147</v>
       </c>
@@ -13660,7 +13657,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13688,7 +13685,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="108"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="96" t="s">
         <v>146</v>
       </c>
@@ -13714,7 +13711,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="108"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="96" t="s">
         <v>147</v>
       </c>
@@ -13740,7 +13737,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="107" t="s">
+      <c r="B151" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13768,7 +13765,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="108"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="96" t="s">
         <v>146</v>
       </c>
@@ -13794,7 +13791,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="108"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="96" t="s">
         <v>147</v>
       </c>
@@ -13820,7 +13817,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="107" t="s">
+      <c r="B154" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13848,7 +13845,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="108"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="96" t="s">
         <v>146</v>
       </c>
@@ -13874,7 +13871,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="108"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="96" t="s">
         <v>147</v>
       </c>
@@ -13928,14 +13925,38 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RTr4YZRu8YgEhwPv+AHrSbFfDBSY4RyMZjpGsfANknFZnbqk8IoT2YkbMvh96sgywM/9htRw6ycs96Ng0+qUwg==" saltValue="wGHiKLNQ4tNRiisLHkSyaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b8R9t8jeSI0sLoPGI/Stvvwq+qu6i3DHlmM5/Ej74qWHz397U05KGTaYXTnTsHAAodjArEgW8nmZLfDu5BHyaw==" saltValue="lbdnZHrOUuVjzEfEpwwUXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13945,36 +13966,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15195,7 +15192,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="73L0fVO8LMo+kDtmJhCju+UvrRENvcMghbtG2DIDoYoUueGHh3fnDbQJi93zW/L+JF+NeqcCLX2VRrj6zAPLZQ==" saltValue="D65V9WpNDEG+yFkenC+9xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="okPXMSK+zlzR33u1iDfkRTXBjfA0319xRk+HKYZpJ6xC1oPPPbcYu7isDbzkQI8md6wm4Hn7HLrAjnPaXs+J9Q==" saltValue="ZiQyxpEzGZWnqXlMVX8PdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15229,7 +15226,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>223</v>
       </c>
@@ -15959,7 +15956,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
         <v>269</v>
       </c>
@@ -18112,7 +18109,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
         <v>223</v>
       </c>
@@ -18769,7 +18766,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="s">
         <v>269</v>
       </c>
@@ -20684,7 +20681,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A222" s="72" t="s">
         <v>223</v>
       </c>
@@ -23334,7 +23331,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dGG8XXi7a+jL4CoFf/FukHStbtAQ5tz+hS1o5HZEed6GAwWJuE/GjC3rEDInTRD3DQe3jqnF+oAnKPtKDhSv5w==" saltValue="SK0Xtc8MCMxxAk6I1mdbVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6KMYBLEwhLpw1MNfoY9xPW6nyoX/kpzjx3oBSg8yPbMIymYWY2dBmFqMR0PGgJGoaeaSq0tjy7o1T7ivGwJE6A==" saltValue="HxNFxBG7fh/WVQu+PM0Eyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24424,7 +24421,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="94d3F9twXAARU74Ouuuh8fEcC6eZgpkUZp687NJ38x2YVhL2dE2zBZdCmodoJstZgJwIBrOe9DMBftEtpjmIQQ==" saltValue="c/a7gIaGENrGAw+CEemeYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LSs9ao/O/kpw/pnOZIJ7VH5m9KdpYNLoF9+NnYezk183ILPgjCM286MeKyC3VdP/5OcrXZ9AP/fzyJymdOWp/Q==" saltValue="GFrcYtlgB0yqzW5kumkoVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24474,7 +24471,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24492,7 +24489,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24512,7 +24509,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24530,7 +24527,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24550,7 +24547,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24568,7 +24565,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24588,7 +24585,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24606,7 +24603,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24626,7 +24623,7 @@
         <v>184</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24644,7 +24641,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24664,7 +24661,7 @@
         <v>188</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24682,7 +24679,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24725,7 +24722,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24747,7 +24744,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24771,7 +24768,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24793,7 +24790,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24817,7 +24814,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24839,7 +24836,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24863,7 +24860,7 @@
         <v>180</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24885,7 +24882,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24909,7 +24906,7 @@
         <v>184</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24931,7 +24928,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24955,7 +24952,7 @@
         <v>188</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24977,7 +24974,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -25024,7 +25021,7 @@
         <v>165</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -25046,7 +25043,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -25070,7 +25067,7 @@
         <v>178</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -25092,7 +25089,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -25116,7 +25113,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -25138,7 +25135,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -25162,7 +25159,7 @@
         <v>180</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -25184,7 +25181,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -25208,7 +25205,7 @@
         <v>184</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -25230,7 +25227,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -25254,7 +25251,7 @@
         <v>188</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -25276,7 +25273,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -25296,7 +25293,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q8XKjg5CQxyChNG9SjU60kVeTRx2UYBbhiLJlXZtfHq+DNvg+6dM4y6161arbLjO1ms61KPKYxq/P1dNI5kYPA==" saltValue="9IdfLMP8UyssZTYZWsiJyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HRccPywEXAaxAU11UUv1rDec76QbQMXW2s0qOqmX0dPJUQoIjF9ojnOoOgczPSHgeiC4i8UzZFwetZnn7YzIlg==" saltValue="T3yumRyXKwxPx3xmfS91cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25367,7 +25364,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -25944,7 +25941,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B17" s="65"/>
     </row>
@@ -26174,7 +26171,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -26920,7 +26917,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B40" s="65"/>
     </row>
@@ -27202,7 +27199,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -27948,7 +27945,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B63" s="65"/>
     </row>
@@ -28181,7 +28178,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ZkIG0xXH27VS56XXDI7tKEqXHOUT4KGKqx85Syc8w7Kgfsi7Xl2kpCXOqylV2yUF9V9Q/WY4UMm/95NitvrDQ==" saltValue="rejMo134z258eD+42WlarA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+rjILp76Fk2RvgFGbcRzZ8chd0M7gSq+lbYG+AWwLZFYFTWLHnGS+DBYpngbVqHSRvMvzukkv1YKyW+8XQLpuw==" saltValue="5UeIxArmn83B60Rtq6fk/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28228,7 +28225,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -28253,7 +28250,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="77"/>
@@ -28284,7 +28281,7 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -28308,7 +28305,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -28338,7 +28335,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="77"/>
@@ -28374,7 +28371,7 @@
     </row>
     <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -28398,7 +28395,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -28428,7 +28425,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="77"/>
@@ -28463,7 +28460,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="79hDzam5WrL+oEjr5RoCdypb/zTML8BczRMNPRyYMX0yM2Ea7KKOGGuZHRW9CtkihZvBEMo5zmsY9K/kEpcgRA==" saltValue="03OiLDi5JhJXmtLK47QmoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GZv9r3KZTV1tDDqz5c5/WiuiuQRej7S6Zu3TFYmMkykc65vD/OaYElSvt9ymKfu22H/u+Y0ngJvryyWFjFUV2Q==" saltValue="sZsUoPUH3wEBYKNfKhOVBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28476,8 +28473,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28499,10 +28496,10 @@
         <v>156</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" s="52" t="s">
         <v>67</v>
@@ -28528,7 +28525,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>0</v>
@@ -28548,7 +28545,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0</v>
@@ -28568,7 +28565,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D4" s="85">
         <v>0</v>
@@ -28594,7 +28591,7 @@
         <v>204</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D5" s="85">
         <v>0</v>
@@ -28614,7 +28611,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -28637,7 +28634,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D7" s="85">
         <v>0</v>
@@ -28657,7 +28654,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D8" s="85">
         <v>0</v>
@@ -28683,7 +28680,7 @@
         <v>204</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D9" s="85">
         <v>0</v>
@@ -28703,7 +28700,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D10" s="85">
         <v>0</v>
@@ -28726,7 +28723,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <v>0</v>
@@ -28746,7 +28743,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D12" s="85">
         <v>0</v>
@@ -28772,7 +28769,7 @@
         <v>204</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <v>0</v>
@@ -28792,7 +28789,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D14" s="85">
         <v>0</v>
@@ -28815,7 +28812,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <v>0</v>
@@ -28835,7 +28832,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D16" s="85">
         <v>0</v>
@@ -28861,7 +28858,7 @@
         <v>204</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D17" s="85">
         <v>0</v>
@@ -28881,7 +28878,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -28904,7 +28901,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D19" s="85">
         <v>0</v>
@@ -28924,7 +28921,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D20" s="85">
         <v>0</v>
@@ -28950,7 +28947,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D21" s="85">
         <v>0.28260869565217389</v>
@@ -28970,7 +28967,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D22" s="85">
         <v>0.46</v>
@@ -28996,7 +28993,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D23" s="85">
         <v>0.28260869565217389</v>
@@ -29016,7 +29013,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D24" s="85">
         <v>0.46</v>
@@ -29042,7 +29039,7 @@
         <v>74</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D25" s="85">
         <v>0.28260869565217389</v>
@@ -29062,7 +29059,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D26" s="85">
         <v>0.46</v>
@@ -29088,7 +29085,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D27" s="85">
         <v>1</v>
@@ -29108,7 +29105,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D28" s="85">
         <v>0</v>
@@ -29128,7 +29125,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D29" s="85">
         <v>0</v>
@@ -29154,7 +29151,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D30" s="85">
         <v>1</v>
@@ -29174,7 +29171,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" s="85">
         <v>0</v>
@@ -29194,7 +29191,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D32" s="85">
         <v>0</v>
@@ -29220,7 +29217,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D33" s="85">
         <v>1</v>
@@ -29240,7 +29237,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D34" s="85">
         <v>0</v>
@@ -29260,7 +29257,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="85">
         <v>0</v>
@@ -29286,7 +29283,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
@@ -29306,7 +29303,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D37" s="85">
         <v>0</v>
@@ -29326,7 +29323,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D38" s="85">
         <v>0</v>
@@ -29352,7 +29349,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -29372,7 +29369,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D40" s="85">
         <v>0</v>
@@ -29392,7 +29389,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D41" s="85">
         <v>0</v>
@@ -29418,7 +29415,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D42" s="85">
         <v>0.3</v>
@@ -29438,7 +29435,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D43" s="85">
         <v>0.5</v>
@@ -29458,7 +29455,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D44" s="85">
         <v>0.65</v>
@@ -29481,7 +29478,7 @@
         <v>82</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D45" s="85">
         <v>0.3</v>
@@ -29501,7 +29498,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D46" s="85">
         <v>0.49</v>
@@ -29521,7 +29518,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D47" s="85">
         <v>0.52</v>
@@ -29547,7 +29544,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D48" s="85">
         <v>0.88</v>
@@ -29567,7 +29564,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D49" s="85">
         <v>0.78409090909090906</v>
@@ -29593,7 +29590,7 @@
         <v>81</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D50" s="85">
         <v>0.88372093023255816</v>
@@ -29613,7 +29610,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D51" s="85">
         <v>0.86</v>
@@ -29639,7 +29636,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D52" s="85">
         <v>0.57999999999999996</v>
@@ -29659,7 +29656,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D53" s="85">
         <v>0.51</v>
@@ -29679,7 +29676,7 @@
     </row>
     <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -29689,10 +29686,10 @@
         <v>156</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" s="76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D56" s="52" t="s">
         <v>67</v>
@@ -29718,7 +29715,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D57" s="85">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -29743,7 +29740,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D58" s="85">
         <f t="shared" si="0"/>
@@ -29768,7 +29765,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D59" s="85">
         <f t="shared" si="0"/>
@@ -29799,7 +29796,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D60" s="85">
         <f t="shared" si="0"/>
@@ -29824,7 +29821,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D61" s="85">
         <f t="shared" si="0"/>
@@ -29852,7 +29849,7 @@
         <v>203</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D62" s="85">
         <f t="shared" si="0"/>
@@ -29877,7 +29874,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D63" s="85">
         <f t="shared" si="0"/>
@@ -29908,7 +29905,7 @@
         <v>204</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D64" s="85">
         <f t="shared" si="0"/>
@@ -29933,7 +29930,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D65" s="85">
         <f t="shared" si="0"/>
@@ -29961,7 +29958,7 @@
         <v>203</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D66" s="85">
         <f t="shared" si="0"/>
@@ -29986,7 +29983,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D67" s="85">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -30017,7 +30014,7 @@
         <v>204</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D68" s="85">
         <f t="shared" si="1"/>
@@ -30042,7 +30039,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D69" s="85">
         <f t="shared" si="1"/>
@@ -30070,7 +30067,7 @@
         <v>203</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D70" s="85">
         <f t="shared" si="1"/>
@@ -30095,7 +30092,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D71" s="85">
         <f t="shared" si="1"/>
@@ -30126,7 +30123,7 @@
         <v>204</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D72" s="85">
         <f t="shared" si="1"/>
@@ -30151,7 +30148,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D73" s="85">
         <f t="shared" si="1"/>
@@ -30179,7 +30176,7 @@
         <v>203</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D74" s="85">
         <f t="shared" si="1"/>
@@ -30204,7 +30201,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D75" s="85">
         <f t="shared" si="1"/>
@@ -30235,7 +30232,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
@@ -30260,7 +30257,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D77" s="85">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -30291,7 +30288,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
@@ -30316,7 +30313,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D79" s="85">
         <f t="shared" si="2"/>
@@ -30347,7 +30344,7 @@
         <v>74</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
@@ -30372,7 +30369,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D81" s="85">
         <f t="shared" si="2"/>
@@ -30403,7 +30400,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D82" s="85">
         <f t="shared" si="2"/>
@@ -30428,7 +30425,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D83" s="85">
         <f t="shared" si="2"/>
@@ -30453,7 +30450,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D84" s="85">
         <f t="shared" si="2"/>
@@ -30484,7 +30481,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D85" s="85">
         <f t="shared" si="2"/>
@@ -30509,7 +30506,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D86" s="85">
         <f t="shared" si="2"/>
@@ -30534,7 +30531,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D87" s="85">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -30565,7 +30562,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D88" s="85">
         <f t="shared" si="3"/>
@@ -30590,7 +30587,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D89" s="85">
         <f t="shared" si="3"/>
@@ -30615,7 +30612,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D90" s="85">
         <f t="shared" si="3"/>
@@ -30646,7 +30643,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D91" s="85">
         <f t="shared" si="3"/>
@@ -30671,7 +30668,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D92" s="85">
         <f t="shared" si="3"/>
@@ -30696,7 +30693,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D93" s="85">
         <f t="shared" si="3"/>
@@ -30727,7 +30724,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D94" s="85">
         <f t="shared" si="3"/>
@@ -30752,7 +30749,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D95" s="85">
         <f t="shared" si="3"/>
@@ -30777,7 +30774,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D96" s="85">
         <f t="shared" si="3"/>
@@ -30808,7 +30805,7 @@
         <v>81</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D97" s="85">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -30833,7 +30830,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D98" s="85">
         <f t="shared" si="4"/>
@@ -30858,7 +30855,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D99" s="85">
         <f t="shared" si="4"/>
@@ -30886,7 +30883,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D100" s="85">
         <f t="shared" si="4"/>
@@ -30911,7 +30908,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D101" s="85">
         <f t="shared" si="4"/>
@@ -30936,7 +30933,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D102" s="85">
         <f t="shared" si="4"/>
@@ -30967,7 +30964,7 @@
         <v>81</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D103" s="85">
         <f t="shared" si="4"/>
@@ -30992,7 +30989,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
@@ -31023,7 +31020,7 @@
         <v>81</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
@@ -31048,7 +31045,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D106" s="85">
         <f t="shared" si="4"/>
@@ -31079,7 +31076,7 @@
         <v>72</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D107" s="85">
         <f t="shared" ref="D107:H116" si="5">D52*0.9</f>
@@ -31104,7 +31101,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D108" s="85">
         <f t="shared" si="5"/>
@@ -31129,7 +31126,7 @@
     </row>
     <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -31139,10 +31136,10 @@
         <v>156</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C111" s="76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D111" s="52" t="s">
         <v>67</v>
@@ -31168,7 +31165,7 @@
         <v>81</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D112" s="85">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -31193,7 +31190,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D113" s="85">
         <f t="shared" si="6"/>
@@ -31218,7 +31215,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D114" s="85">
         <f t="shared" si="6"/>
@@ -31249,7 +31246,7 @@
         <v>204</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D115" s="85">
         <f t="shared" si="6"/>
@@ -31274,7 +31271,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D116" s="85">
         <f t="shared" si="6"/>
@@ -31302,7 +31299,7 @@
         <v>203</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D117" s="85">
         <f t="shared" si="6"/>
@@ -31327,7 +31324,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D118" s="85">
         <f t="shared" si="6"/>
@@ -31358,7 +31355,7 @@
         <v>204</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D119" s="85">
         <f t="shared" si="6"/>
@@ -31383,7 +31380,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D120" s="85">
         <f t="shared" si="6"/>
@@ -31411,7 +31408,7 @@
         <v>203</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D121" s="85">
         <f t="shared" si="6"/>
@@ -31436,7 +31433,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="85">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -31467,7 +31464,7 @@
         <v>204</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D123" s="85">
         <f t="shared" si="7"/>
@@ -31492,7 +31489,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="85">
         <f t="shared" si="7"/>
@@ -31520,7 +31517,7 @@
         <v>203</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D125" s="85">
         <f t="shared" si="7"/>
@@ -31545,7 +31542,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="85">
         <f t="shared" si="7"/>
@@ -31576,7 +31573,7 @@
         <v>204</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D127" s="85">
         <f t="shared" si="7"/>
@@ -31601,7 +31598,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="85">
         <f t="shared" si="7"/>
@@ -31629,7 +31626,7 @@
         <v>203</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D129" s="85">
         <f t="shared" si="7"/>
@@ -31654,7 +31651,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D130" s="85">
         <f t="shared" si="7"/>
@@ -31685,7 +31682,7 @@
         <v>74</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
@@ -31710,7 +31707,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D132" s="85">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -31741,7 +31738,7 @@
         <v>74</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
@@ -31766,7 +31763,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D134" s="85">
         <f t="shared" si="8"/>
@@ -31797,7 +31794,7 @@
         <v>74</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
@@ -31822,7 +31819,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D136" s="85">
         <f t="shared" si="8"/>
@@ -31853,7 +31850,7 @@
         <v>81</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D137" s="85">
         <f t="shared" si="8"/>
@@ -31878,7 +31875,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D138" s="85">
         <f t="shared" si="8"/>
@@ -31903,7 +31900,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D139" s="85">
         <f t="shared" si="8"/>
@@ -31934,7 +31931,7 @@
         <v>81</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D140" s="85">
         <f t="shared" si="8"/>
@@ -31959,7 +31956,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D141" s="85">
         <f t="shared" si="8"/>
@@ -31984,7 +31981,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D142" s="85">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -32015,7 +32012,7 @@
         <v>81</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D143" s="85">
         <f t="shared" si="9"/>
@@ -32040,7 +32037,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D144" s="85">
         <f t="shared" si="9"/>
@@ -32065,7 +32062,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D145" s="85">
         <f t="shared" si="9"/>
@@ -32096,7 +32093,7 @@
         <v>81</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D146" s="85">
         <f t="shared" si="9"/>
@@ -32121,7 +32118,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D147" s="85">
         <f t="shared" si="9"/>
@@ -32146,7 +32143,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D148" s="85">
         <f t="shared" si="9"/>
@@ -32177,7 +32174,7 @@
         <v>81</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D149" s="85">
         <f t="shared" si="9"/>
@@ -32202,7 +32199,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D150" s="85">
         <f t="shared" si="9"/>
@@ -32227,7 +32224,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D151" s="85">
         <f t="shared" si="9"/>
@@ -32258,7 +32255,7 @@
         <v>81</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D152" s="85">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -32283,7 +32280,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D153" s="85">
         <f t="shared" si="10"/>
@@ -32308,7 +32305,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D154" s="85">
         <f t="shared" si="10"/>
@@ -32336,7 +32333,7 @@
         <v>82</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D155" s="85">
         <f t="shared" si="10"/>
@@ -32361,7 +32358,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D156" s="85">
         <f t="shared" si="10"/>
@@ -32386,7 +32383,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D157" s="85">
         <f t="shared" si="10"/>
@@ -32417,7 +32414,7 @@
         <v>81</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D158" s="85">
         <f t="shared" si="10"/>
@@ -32442,7 +32439,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
@@ -32473,7 +32470,7 @@
         <v>81</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
@@ -32498,7 +32495,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D161" s="85">
         <f t="shared" si="10"/>
@@ -32529,7 +32526,7 @@
         <v>72</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D162" s="85">
         <f t="shared" ref="D162:H171" si="11">D52*1.05</f>
@@ -32554,7 +32551,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D163" s="85">
         <f t="shared" si="11"/>
@@ -32578,7 +32575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vc3h5nfsJK7iKj49GvDqPkcO6snZ2y/0hmiXrz/+9w3374wL+zU3/rVLwkzcpJ60HMtYAkmmBNM7lBXhlqJ/eA==" saltValue="pb1HI+/ZQEE9+vi6WEG+vw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UIpK/0EAR92GfzxR6Dg8WmQkf1Ww91D/dV39Wx6GjZEye+SIEfqRKzwpwFNRz8QTSiCS9AJikBul8LUTfeqUIQ==" saltValue="QuxvPQBHDzI3jEpCxTxzyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32610,7 +32607,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="52" t="s">
@@ -32635,7 +32632,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -32653,7 +32650,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0.2</v>
@@ -32677,7 +32674,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -32695,7 +32692,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="85">
         <v>0.59</v>
@@ -32719,7 +32716,7 @@
         <v>94</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -32737,7 +32734,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D7" s="85">
         <v>0.6</v>
@@ -32755,7 +32752,7 @@
     </row>
     <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -32763,7 +32760,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="52" t="s">
@@ -32787,7 +32784,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -32808,7 +32805,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="0"/>
@@ -32835,7 +32832,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="0"/>
@@ -32856,7 +32853,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="0"/>
@@ -32883,7 +32880,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="0"/>
@@ -32904,7 +32901,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="0"/>
@@ -32925,7 +32922,7 @@
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -32933,7 +32930,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="52" t="s">
@@ -32957,7 +32954,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D20" s="85">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -32978,7 +32975,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D21" s="85">
         <f t="shared" si="1"/>
@@ -33005,7 +33002,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D22" s="85">
         <f t="shared" si="1"/>
@@ -33026,7 +33023,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D23" s="85">
         <f t="shared" si="1"/>
@@ -33053,7 +33050,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D24" s="85">
         <f t="shared" si="1"/>
@@ -33074,7 +33071,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D25" s="85">
         <f t="shared" si="1"/>
@@ -33094,7 +33091,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C81VN1Mc5RLvIRGWFGIm1pzzxDAMBVfb7WYh+/stGexEzTwMsu/gsOFGKIboSEX4YpLXnfvLcARoIns1yxXt1A==" saltValue="elbTiNfSG9apWmhzoT5lzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lYMDmlT0x9r8DoVYcPzojUiH6/qvzyR3ekqbtIF33CloEtvBWawfBzAVmt4Hj/5ZiM3OYzd2mD+3gVOQqm6gNA==" saltValue="l+hS+N/Z8ccIphk8roYmEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33107,7 +33104,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33234,16 +33231,16 @@
       <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="11"/>
@@ -33531,7 +33528,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="td87MFi//N0oYbQW4FJqL8KHKjtLjyXOQv2Fnj8k3s/V3M5Tjmv2Lswe/OUvHQaRFO7OxnToTfhNe1utLJth+w==" saltValue="PLNJ2vzx4pBzTE1EXYs3lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="an1e5ZuNxdAjpqp+GPpiMKRl+dgZd2ee1+nk+6Gq7gMYS652N3DNsXbOSU6to2AV2jOYd98V1MSDv9rlTk+nDA==" saltValue="Dq+Lw09k5RjsLoeVINiZKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33954,7 +33951,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w6cq8WBQPG4V3O3oEQK8MovICXrKeuZiAJ5DbXmpf48olf+bDVv24KPVPAdLJnawceWP08xvLTNg4Y+pvQKJSw==" saltValue="CiQcIJtsPjF4LibalgYv9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2HRKReaaZU/JmppBIByWs50FCSCvXB9dUJ13tle8a8X9CKD4hz3SOp6+eVfmSPZNHc0SEhMjvBd553Y4jBcyWA==" saltValue="J4X0Of4f+wcEJ9bFrd5d0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -34074,7 +34071,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U/eS5v7EXSmAn00lfyjl9tBmHxRjgMnb8NecugK1krTq5/YkdxYj/DYAILZvXsoYcLRWrFQles/NKKedqqZ2PQ==" saltValue="XQM2gTttGm0dcEf0MOxgGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E0lFu8DnBZfXSupDZMMeEpjm25ywkIOpuWEbJe0bOU+2awyZCHbPpfDTgIPGQjqMY+74x1qdpxEK8TgUr4KX3A==" saltValue="6SE4uOdLt9RP273PpDBfWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -34282,7 +34279,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eEaq4hwW/7e1l0vgbDNS3fajfYElkaGLTQrhaGPWzfbsDZQA6uUfkYbekVlUjlGgels2B0wd9wD+0wcAuUqrEw==" saltValue="tMrFjEneTaTJqXNQIQdQtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vCyV+1biBiVAbQ3Ly4HdRr2jGgdhKR0n6CsavF0/OwEHaMIRfzq05WEh64Rsu08xFnWX9mSVklfWweZ3FA/yiw==" saltValue="2Vbdf1Pg/gRfPA6Tj2Zejg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait"/>
 </worksheet>
@@ -34299,7 +34296,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" style="102" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="102" customWidth="1"/>
@@ -34364,7 +34361,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2LOBj/YpdhPHKw+5sgkLSzz2VLKrC3x/aNw1L8Ryv1vsmfbhBw9S3GiII73SlR0WhBuo5PwFCWEkyaHS0i9FUA==" saltValue="nzThz533uEgQeDoJWgS2qA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7D0mBN8J9e4iOlHphCDvkLocGWCi+qMvstyXAiJ/TwuWTqCSncZBfYhcBPTYq/mpS7HXmEpT/Fg6lg1pmHgsKg==" saltValue="P6PgXvkBYHqU82Ry0wxaSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34625,7 +34622,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="poui83KaCBAoKYyXFS/EBJrduA72lo3izQaITvLoutcBuutY6Xaf0EMEYDdZP5CtZYUtsOsa4m4nsQ56ifyN1A==" saltValue="RHpP1NO8c7Y3zlqmzK+AMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ENgGoaoeZZFZhfYusApS/h17v9ZhtUROsuHdep3EFDoyFEh8+eEsqmd075PiuQ12mVWFSmvTEMdN/TFEoiymBA==" saltValue="xLj3nJngA7mrEL7Su51p7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34689,7 +34686,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XHIUVwXG2IIwH1pYQNEOoouQVVv5UB2RghLIfz0GSfVSCAgUf0tXcaQIjxcFSK7CzBrJxKfLku1n2lMB2Itehg==" saltValue="VwWo/otmT96NRdsZ1OFKeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jFR9wEPtCWRgN0352G0jz9RDbxlUwZA/YIHZ+8Bn0o0/TOyu+WovStW8qj66o94I126RU0rVLTROQraln3SePQ==" saltValue="AaFln+yxs5EPklVaRDmTuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/LiST countries/BGD_databook.xlsx
+++ b/inputs/fr/LiST countries/BGD_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0BzU7J_ZlwMKeWXBzZEFyaElkX28\Optima Nutrition\Development\LiST Optima bridge\App\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4074458-28B4-4B96-AA23-FF0F52D438E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C20968-AD69-4DEF-8F3E-6CC3EB67165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1417,7 +1417,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1533,6 +1533,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1678,7 +1684,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,6 +1930,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2765,7 +2774,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ghjhUeOjSu54joBj/6evx4SDOum03F8iG0XenhK4Pa/EwlZsPGOFRJixryTp+uMxjrhg9XtQ76Ucb9iWhxMXFQ==" saltValue="6XF2re2LSlNjO/MuSAZoeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+IEGaV2caiGfb5SmbcObz0yJCt4xlEnw7vZThEN7hJuAPecovyMN9UeoyDuQDdMlcMKxNllJ9A94HXnttzs7xA==" saltValue="cEpx7e3ghIA3iGELhbn74g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3691,7 +3700,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBFqQ1iF93dEd59wJXA7pcbnXCVpV0RezbRViSZfi/bduF6KA5Dd9rCXSXyKq7O8MdVBMMat/LGYPQqJRLRvww==" saltValue="urH8ZbYbNH6KtG9hK5BoRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0npTeXLIq7GGMLHaFw2lTCrleYEKPJuXwmbRJ93N+FsrzvcDylN+qg5MelbXkGUPjL/CjF8a3UnozTjYkwXz6w==" saltValue="II+8cjWkWXd1fap2uA6Quw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3841,7 +3850,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TsMTEjhQfsDbwsiN2V+FBa4JMAXczw+QDtstVKRV4SDzGYsfvINP0HeeyWi6mulLny3Nl6q79FdNypIwLaBXjg==" saltValue="Yw40EVFeXNYoZBE+C5fnYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F5iiWVCPXTctLOwL8V//E2NOpkpMc3Eob2o+o5FNUpQ7KtI5qOOdFe8rxffouC2+qylvPiGKU/o5ruYsrXj/UQ==" saltValue="gOjGz0Nx5OSx2UuUy403Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3942,7 +3951,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t0CyKfEx1I874FzE9dsSxBS3LQMZrT9nU6A72sZRprGCfdri1/dbgM35oJr4+2q16z6w3OHbR3il2pah1Sl+Ew==" saltValue="j/CnLEAB8t4G00F9av2H6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SILewYvMApt4Cvc/pmQPgG0S13aj/SJmiUQ4NL/uDcr+7x+wZGEeIjJt0bSDFRnFo7+6kGz/utCB/r0/FlNCIg==" saltValue="sPMMqGBpY1zUu1vJtnb41Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4057,7 +4066,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2cFkuka0oEeAi9H2OF1nLhHVawyD85c93XXPAC1Bg80GTVoFZpnkIF/09//41z/qu0tGgbxRDPZDegQQRN10SA==" saltValue="tiLNytLFgmF4TnAeaeFqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6NUTMxYJ83xaQ/VEzm+RE2MbfT+FChDjgmeO76F0rtaRsW1IoMeoUfUyJrG//Lc0eVYH/9iSGBjp/CVFt1Cnlg==" saltValue="B9nG3fMT9BvkNk5GiE8Siw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5818,7 +5827,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+bxYXci6bnWo8YDlvguRL8pZC+EpiXWiZQ2y+CXge31/fxdRmZk5MZBv9kTDF1r/wxJTgrtAblgD83BwZ2Du9A==" saltValue="MQwBi5TN/eRjxZV8o0LR8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QOelA5BWM/PXJcFkxhyFj3N4hbHvG+eZjHzpLywY0sYrbF8HOnPhkuQTzzU0X5Kw5SIcxkCPxNpaxf86VR0MQQ==" saltValue="u8lXcte+SpEsrY0eSWM8cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5853,7 +5862,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0PlOxcUVy+LSsKkrUd4raCgz2ElKDw8Mg2k3z+RW5mN0mDxikfsk2jm13Fc7vve7UF4J9LkOVPdRxmgrWvsD5w==" saltValue="1mEBSNNlA2Wx29udY7yn8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YSbELESYHGtPZNMtYrCuGVRnmhVxg0Uw7Kh206BvKWP+FPvy5gxh5uDIELN5JYrYTPkWCt1YwSVcNndSt5KnkA==" saltValue="yJdyq7bcpY6lE0aZ72DM7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6059,7 +6068,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="85OjQu6BmVrfigLSUaRCwVbeeKO+ykTOFQFhNLUTAEZ5VQlAU1fC3xuefVNrN4PLCvLOmUerIgXbmFK363INHg==" saltValue="4TFXvF/atEdhqT7iaUNb5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dPOoatMWv2wLc2tNkz2i4izWpOr6po6siNnDrPZc2xs4Z9O1lcE+Z5ISIKsHUneI7PdqXpx2m7HyONkbEuqpYg==" saltValue="0so6r//NAvJ5V68AgtrhdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7874,7 +7883,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZKnPAUJhScrHU7iPo6k0Cz35vWKfdcryfAs+YenLA2BFdVXrYwJjHbC2rsyP52hFe4Q4h+44PfkXM6Gmf2AFxw==" saltValue="gmECP+wBJoL3RLMgtX6LkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t+hxj+KpXZwkLd6EKs4i+oOqayThGvJy0fWjfkVlNo4aUXa0ih62vZ5ctwXe0VJ55gYC+cKccoPZ+y/5qsvJGw==" saltValue="eCpivUJUkCeXRs+O100FyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8642,7 +8651,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="naYqbKOAbqCxPMk9FgI9KL20NaArNwSlh9KTgQEhwto/TEM+JrApyqClQs0IRVGtE8MC6fBvS1ny5mjVoZUSUQ==" saltValue="lxKrZTvhhSzjOQIrYgeOZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qzN1lfCZ2GS9N2qbpOxSOHK13zMF1GAuy7OH7jgtgsirSY6NrFZy+plCE0K5RzljkENceU/Zrqbg74rZNZMqng==" saltValue="yBFrajDxH5RGkOiBKCxnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9017,7 +9026,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jOqS/UWFPAMlf9HNSKkYtelE9OwgtQwDhh47HVszWP5YFZab13jcOHr/gFk5YcTAGDlZOu2zUe+5yz4gPqt0zA==" saltValue="o9G99qbtQnn5dXhD5gzw1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u97/9/lbMPKo4oeXD5CnONYXPQtEgn/F6eB8kEmWbe94J9EVDgpDtXsBuwPTvNsLPcQfhkqOLs3wuTGQlRVkYg==" saltValue="Dgiz09BdE0FzztXAvUZGLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10107,7 +10116,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F7XnqcsfMF36HsHPq5glo44UkWbfoChY8CwFGqcmwyYulQZVzGfYBO47ByB1ETUpxkm1MIzw6Pvmuy8g5Ppqog==" saltValue="XvwOVbIWjwyJYz+XnK/toQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XK4NSTt0Wl6i+MDbWMOvPnz5WF+h1dNPG4s7zUKD2I6Yiqwp0r8vVxqgoiYCGeReWo3gBvwYUbFl3AT4ujE/AQ==" saltValue="f+mxH3KgjjySvbGHyzJ11g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -10168,7 +10177,7 @@
       <c r="A2" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -10191,7 +10200,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="107"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="96" t="s">
         <v>146</v>
       </c>
@@ -10213,7 +10222,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="96" t="s">
         <v>147</v>
       </c>
@@ -10235,7 +10244,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -10259,7 +10268,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="107"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="96" t="s">
         <v>146</v>
       </c>
@@ -10280,7 +10289,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="96" t="s">
         <v>147</v>
       </c>
@@ -10301,7 +10310,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10324,7 +10333,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="96" t="s">
         <v>146</v>
       </c>
@@ -10345,7 +10354,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="96" t="s">
         <v>147</v>
       </c>
@@ -10366,7 +10375,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10389,7 +10398,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="96" t="s">
         <v>146</v>
       </c>
@@ -10410,7 +10419,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="96" t="s">
         <v>147</v>
       </c>
@@ -10431,7 +10440,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10454,7 +10463,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="96" t="s">
         <v>146</v>
       </c>
@@ -10475,7 +10484,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="96" t="s">
         <v>147</v>
       </c>
@@ -10529,7 +10538,7 @@
       <c r="A19" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10552,7 +10561,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="107"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="96" t="s">
         <v>146</v>
       </c>
@@ -10573,7 +10582,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="96" t="s">
         <v>147</v>
       </c>
@@ -10594,7 +10603,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10617,7 +10626,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="96" t="s">
         <v>146</v>
       </c>
@@ -10638,7 +10647,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="96" t="s">
         <v>147</v>
       </c>
@@ -10659,7 +10668,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10682,7 +10691,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="96" t="s">
         <v>146</v>
       </c>
@@ -10703,7 +10712,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="96" t="s">
         <v>147</v>
       </c>
@@ -10724,7 +10733,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10747,7 +10756,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="107"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="96" t="s">
         <v>146</v>
       </c>
@@ -10768,7 +10777,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="107"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="96" t="s">
         <v>147</v>
       </c>
@@ -10789,7 +10798,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10812,7 +10821,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="96" t="s">
         <v>146</v>
       </c>
@@ -10833,7 +10842,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="107"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="96" t="s">
         <v>147</v>
       </c>
@@ -10887,7 +10896,7 @@
       <c r="A36" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10910,7 +10919,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="107"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="96" t="s">
         <v>146</v>
       </c>
@@ -10931,7 +10940,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="107"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="96" t="s">
         <v>147</v>
       </c>
@@ -10952,7 +10961,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10975,7 +10984,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="107"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="96" t="s">
         <v>146</v>
       </c>
@@ -10996,7 +11005,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="107"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="96" t="s">
         <v>147</v>
       </c>
@@ -11017,7 +11026,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -11040,7 +11049,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="107"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="96" t="s">
         <v>146</v>
       </c>
@@ -11061,7 +11070,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="107"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="96" t="s">
         <v>147</v>
       </c>
@@ -11082,7 +11091,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -11105,7 +11114,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="107"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="96" t="s">
         <v>146</v>
       </c>
@@ -11126,7 +11135,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="107"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="96" t="s">
         <v>147</v>
       </c>
@@ -11147,7 +11156,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -11170,7 +11179,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="107"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="96" t="s">
         <v>146</v>
       </c>
@@ -11191,7 +11200,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="107"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="96" t="s">
         <v>147</v>
       </c>
@@ -11276,7 +11285,7 @@
       <c r="A55" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -11304,7 +11313,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="107"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="96" t="s">
         <v>146</v>
       </c>
@@ -11330,7 +11339,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="107"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="96" t="s">
         <v>147</v>
       </c>
@@ -11356,7 +11365,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11384,7 +11393,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="96" t="s">
         <v>146</v>
       </c>
@@ -11410,7 +11419,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="96" t="s">
         <v>147</v>
       </c>
@@ -11436,7 +11445,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11464,7 +11473,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="107"/>
+      <c r="B62" s="108"/>
       <c r="C62" s="96" t="s">
         <v>146</v>
       </c>
@@ -11490,7 +11499,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
+      <c r="B63" s="108"/>
       <c r="C63" s="96" t="s">
         <v>147</v>
       </c>
@@ -11516,7 +11525,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11544,7 +11553,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="96" t="s">
         <v>146</v>
       </c>
@@ -11570,7 +11579,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="96" t="s">
         <v>147</v>
       </c>
@@ -11596,7 +11605,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11624,7 +11633,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="96" t="s">
         <v>146</v>
       </c>
@@ -11650,7 +11659,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="107"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="96" t="s">
         <v>147</v>
       </c>
@@ -11714,7 +11723,7 @@
       <c r="A72" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11742,7 +11751,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="107"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="96" t="s">
         <v>146</v>
       </c>
@@ -11768,7 +11777,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="107"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="96" t="s">
         <v>147</v>
       </c>
@@ -11794,7 +11803,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11822,7 +11831,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="107"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="96" t="s">
         <v>146</v>
       </c>
@@ -11848,7 +11857,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="96" t="s">
         <v>147</v>
       </c>
@@ -11874,7 +11883,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11902,7 +11911,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="96" t="s">
         <v>146</v>
       </c>
@@ -11928,7 +11937,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="107"/>
+      <c r="B80" s="108"/>
       <c r="C80" s="96" t="s">
         <v>147</v>
       </c>
@@ -11954,7 +11963,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11982,7 +11991,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="96" t="s">
         <v>146</v>
       </c>
@@ -12008,7 +12017,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
+      <c r="B83" s="108"/>
       <c r="C83" s="96" t="s">
         <v>147</v>
       </c>
@@ -12034,7 +12043,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -12062,7 +12071,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="107"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="96" t="s">
         <v>146</v>
       </c>
@@ -12088,7 +12097,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="107"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="96" t="s">
         <v>147</v>
       </c>
@@ -12152,7 +12161,7 @@
       <c r="A89" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -12180,7 +12189,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="107"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="96" t="s">
         <v>146</v>
       </c>
@@ -12206,7 +12215,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="107"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="96" t="s">
         <v>147</v>
       </c>
@@ -12232,7 +12241,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="106" t="s">
+      <c r="B92" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -12260,7 +12269,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="107"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="96" t="s">
         <v>146</v>
       </c>
@@ -12286,7 +12295,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="107"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="96" t="s">
         <v>147</v>
       </c>
@@ -12312,7 +12321,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="106" t="s">
+      <c r="B95" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12340,7 +12349,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="107"/>
+      <c r="B96" s="108"/>
       <c r="C96" s="96" t="s">
         <v>146</v>
       </c>
@@ -12366,7 +12375,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="107"/>
+      <c r="B97" s="108"/>
       <c r="C97" s="96" t="s">
         <v>147</v>
       </c>
@@ -12392,7 +12401,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12420,7 +12429,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="107"/>
+      <c r="B99" s="108"/>
       <c r="C99" s="96" t="s">
         <v>146</v>
       </c>
@@ -12446,7 +12455,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="107"/>
+      <c r="B100" s="108"/>
       <c r="C100" s="96" t="s">
         <v>147</v>
       </c>
@@ -12472,7 +12481,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="106" t="s">
+      <c r="B101" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12500,7 +12509,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="107"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="96" t="s">
         <v>146</v>
       </c>
@@ -12526,7 +12535,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="107"/>
+      <c r="B103" s="108"/>
       <c r="C103" s="96" t="s">
         <v>147</v>
       </c>
@@ -12621,7 +12630,7 @@
       <c r="A108" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="106" t="s">
+      <c r="B108" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12649,7 +12658,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="107"/>
+      <c r="B109" s="108"/>
       <c r="C109" s="96" t="s">
         <v>146</v>
       </c>
@@ -12675,7 +12684,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="107"/>
+      <c r="B110" s="108"/>
       <c r="C110" s="96" t="s">
         <v>147</v>
       </c>
@@ -12701,7 +12710,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="106" t="s">
+      <c r="B111" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12729,7 +12738,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="107"/>
+      <c r="B112" s="108"/>
       <c r="C112" s="96" t="s">
         <v>146</v>
       </c>
@@ -12755,7 +12764,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="107"/>
+      <c r="B113" s="108"/>
       <c r="C113" s="96" t="s">
         <v>147</v>
       </c>
@@ -12781,7 +12790,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="106" t="s">
+      <c r="B114" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12809,7 +12818,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="107"/>
+      <c r="B115" s="108"/>
       <c r="C115" s="96" t="s">
         <v>146</v>
       </c>
@@ -12835,7 +12844,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="107"/>
+      <c r="B116" s="108"/>
       <c r="C116" s="96" t="s">
         <v>147</v>
       </c>
@@ -12861,7 +12870,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="106" t="s">
+      <c r="B117" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12889,7 +12898,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="107"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="96" t="s">
         <v>146</v>
       </c>
@@ -12915,7 +12924,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="107"/>
+      <c r="B119" s="108"/>
       <c r="C119" s="96" t="s">
         <v>147</v>
       </c>
@@ -12941,7 +12950,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="106" t="s">
+      <c r="B120" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12969,7 +12978,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="107"/>
+      <c r="B121" s="108"/>
       <c r="C121" s="96" t="s">
         <v>146</v>
       </c>
@@ -12995,7 +13004,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="107"/>
+      <c r="B122" s="108"/>
       <c r="C122" s="96" t="s">
         <v>147</v>
       </c>
@@ -13059,7 +13068,7 @@
       <c r="A125" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B125" s="106" t="s">
+      <c r="B125" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -13087,7 +13096,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="107"/>
+      <c r="B126" s="108"/>
       <c r="C126" s="96" t="s">
         <v>146</v>
       </c>
@@ -13113,7 +13122,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="107"/>
+      <c r="B127" s="108"/>
       <c r="C127" s="96" t="s">
         <v>147</v>
       </c>
@@ -13139,7 +13148,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="106" t="s">
+      <c r="B128" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -13167,7 +13176,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="107"/>
+      <c r="B129" s="108"/>
       <c r="C129" s="96" t="s">
         <v>146</v>
       </c>
@@ -13193,7 +13202,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="107"/>
+      <c r="B130" s="108"/>
       <c r="C130" s="96" t="s">
         <v>147</v>
       </c>
@@ -13219,7 +13228,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="106" t="s">
+      <c r="B131" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -13247,7 +13256,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="107"/>
+      <c r="B132" s="108"/>
       <c r="C132" s="96" t="s">
         <v>146</v>
       </c>
@@ -13273,7 +13282,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="107"/>
+      <c r="B133" s="108"/>
       <c r="C133" s="96" t="s">
         <v>147</v>
       </c>
@@ -13299,7 +13308,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13327,7 +13336,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="107"/>
+      <c r="B135" s="108"/>
       <c r="C135" s="96" t="s">
         <v>146</v>
       </c>
@@ -13353,7 +13362,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="107"/>
+      <c r="B136" s="108"/>
       <c r="C136" s="96" t="s">
         <v>147</v>
       </c>
@@ -13379,7 +13388,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="106" t="s">
+      <c r="B137" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13407,7 +13416,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="107"/>
+      <c r="B138" s="108"/>
       <c r="C138" s="96" t="s">
         <v>146</v>
       </c>
@@ -13433,7 +13442,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="107"/>
+      <c r="B139" s="108"/>
       <c r="C139" s="96" t="s">
         <v>147</v>
       </c>
@@ -13497,7 +13506,7 @@
       <c r="A142" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="B142" s="106" t="s">
+      <c r="B142" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13525,7 +13534,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="107"/>
+      <c r="B143" s="108"/>
       <c r="C143" s="96" t="s">
         <v>146</v>
       </c>
@@ -13551,7 +13560,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="107"/>
+      <c r="B144" s="108"/>
       <c r="C144" s="96" t="s">
         <v>147</v>
       </c>
@@ -13577,7 +13586,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="106" t="s">
+      <c r="B145" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13605,7 +13614,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="107"/>
+      <c r="B146" s="108"/>
       <c r="C146" s="96" t="s">
         <v>146</v>
       </c>
@@ -13631,7 +13640,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="107"/>
+      <c r="B147" s="108"/>
       <c r="C147" s="96" t="s">
         <v>147</v>
       </c>
@@ -13657,7 +13666,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="106" t="s">
+      <c r="B148" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13685,7 +13694,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="107"/>
+      <c r="B149" s="108"/>
       <c r="C149" s="96" t="s">
         <v>146</v>
       </c>
@@ -13711,7 +13720,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="107"/>
+      <c r="B150" s="108"/>
       <c r="C150" s="96" t="s">
         <v>147</v>
       </c>
@@ -13737,7 +13746,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="106" t="s">
+      <c r="B151" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13765,7 +13774,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="107"/>
+      <c r="B152" s="108"/>
       <c r="C152" s="96" t="s">
         <v>146</v>
       </c>
@@ -13791,7 +13800,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="107"/>
+      <c r="B153" s="108"/>
       <c r="C153" s="96" t="s">
         <v>147</v>
       </c>
@@ -13817,7 +13826,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="106" t="s">
+      <c r="B154" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13845,7 +13854,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="107"/>
+      <c r="B155" s="108"/>
       <c r="C155" s="96" t="s">
         <v>146</v>
       </c>
@@ -13871,7 +13880,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="107"/>
+      <c r="B156" s="108"/>
       <c r="C156" s="96" t="s">
         <v>147</v>
       </c>
@@ -13925,8 +13934,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b8R9t8jeSI0sLoPGI/Stvvwq+qu6i3DHlmM5/Ej74qWHz397U05KGTaYXTnTsHAAodjArEgW8nmZLfDu5BHyaw==" saltValue="lbdnZHrOUuVjzEfEpwwUXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBNyWqjHi6JBDD0sDRohG0+zKSwBQRmq3tK2UQu0npecie6G9t7+kbG8/6G9QJL99Ca+3uDxXD6+/n7c7AjMFg==" saltValue="ci+CLgFxbtvgVsFuzL8hDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13936,42 +13981,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15192,7 +15201,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="okPXMSK+zlzR33u1iDfkRTXBjfA0319xRk+HKYZpJ6xC1oPPPbcYu7isDbzkQI8md6wm4Hn7HLrAjnPaXs+J9Q==" saltValue="ZiQyxpEzGZWnqXlMVX8PdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s4tc42XHaAX0YOSD/5/JGY0CLlb00G4FxX/2/sNSxt6LFsyERsRty82wp2hn5pYgEA5gCnXqNvjYJSu7Y8izIA==" saltValue="tmZyC2FzuUpzhBzEx61kOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23331,7 +23340,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6KMYBLEwhLpw1MNfoY9xPW6nyoX/kpzjx3oBSg8yPbMIymYWY2dBmFqMR0PGgJGoaeaSq0tjy7o1T7ivGwJE6A==" saltValue="HxNFxBG7fh/WVQu+PM0Eyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V0thJYSK3O7Dm1FCBmb7llf1x8sZP3OPuhFklHlVob9m7yn2poVjQiZigIJtTWim7orJSp/Qfon86tWXdcEqJg==" saltValue="RkqUeWEM8Rh61CQuMx5ueg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24421,7 +24430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LSs9ao/O/kpw/pnOZIJ7VH5m9KdpYNLoF9+NnYezk183ILPgjCM286MeKyC3VdP/5OcrXZ9AP/fzyJymdOWp/Q==" saltValue="GFrcYtlgB0yqzW5kumkoVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gr/CvCmIBRcRnLPH5JV6GhIMK9C+uCyo/lB2DvT2WEUieOzRO6YIqD5De4D4+IsQUGNZJY+ochzIc0a1SGtvxQ==" saltValue="1Iuq/gNZIucAVRgduUzgGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -25293,7 +25302,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HRccPywEXAaxAU11UUv1rDec76QbQMXW2s0qOqmX0dPJUQoIjF9ojnOoOgczPSHgeiC4i8UzZFwetZnn7YzIlg==" saltValue="T3yumRyXKwxPx3xmfS91cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1sdLZc6O8ARUHbXpxzxyja3xGZxk36QJZJdXMYj3JX81vGa4bxoVQTNzjw6p5dWHJqJRpchUccYNhYe6P8eiAg==" saltValue="Rb7F04OaH493y+0wqzw+WA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28178,7 +28187,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+rjILp76Fk2RvgFGbcRzZ8chd0M7gSq+lbYG+AWwLZFYFTWLHnGS+DBYpngbVqHSRvMvzukkv1YKyW+8XQLpuw==" saltValue="5UeIxArmn83B60Rtq6fk/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ckiuuXbWt0qRwwrHZZ23FxXni9P5FxGt0aAtLNWyapKiJ9dRUbnVEEbNB6uw2ehGYXz+rg77qFj7s5ju5DJiRw==" saltValue="tDyMjl/Alq+QIuN9Nu4EOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28460,7 +28469,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GZv9r3KZTV1tDDqz5c5/WiuiuQRej7S6Zu3TFYmMkykc65vD/OaYElSvt9ymKfu22H/u+Y0ngJvryyWFjFUV2Q==" saltValue="sZsUoPUH3wEBYKNfKhOVBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CeoU06bgpqsSpfihonTaJhoe0CwHdLTYYZL8ljLtwFPw/ApaFofNz6p89DeQ0AVf246L9yVzduMDh/qZh/O6Kw==" saltValue="CPZB8Twrd+ZcQqDk11itXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -32575,7 +32584,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UIpK/0EAR92GfzxR6Dg8WmQkf1Ww91D/dV39Wx6GjZEye+SIEfqRKzwpwFNRz8QTSiCS9AJikBul8LUTfeqUIQ==" saltValue="QuxvPQBHDzI3jEpCxTxzyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cqni4WX0yxQEFzzJuNxq0g9zrhcJ3Ns8iHldI7OxT3e/Uwy3xgbTkiCjHOxXW0x7QSFX991//QDWTw77rUTUtw==" saltValue="pD0Rzz7DGxc65+tQw0d2sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33091,7 +33100,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lYMDmlT0x9r8DoVYcPzojUiH6/qvzyR3ekqbtIF33CloEtvBWawfBzAVmt4Hj/5ZiM3OYzd2mD+3gVOQqm6gNA==" saltValue="l+hS+N/Z8ccIphk8roYmEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tLUc+ZZeMcTNK+j/fiz3x4226JVDS06HRqbTiqwXg/BcmAzxLrOa2lx3JWFFWTqNyy4i+UOqpxXwNTUh5tUfPw==" saltValue="Ql6ekJ5+Ip5iB3SC8ZlEWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33103,8 +33112,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33231,16 +33240,16 @@
       <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="106" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="11"/>
@@ -33528,7 +33537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="an1e5ZuNxdAjpqp+GPpiMKRl+dgZd2ee1+nk+6Gq7gMYS652N3DNsXbOSU6to2AV2jOYd98V1MSDv9rlTk+nDA==" saltValue="Dq+Lw09k5RjsLoeVINiZKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GIfsMdymiuuf5Mpf4pjItHm3dYm+FI65a/t/8vDumaqK+GPEiOBIwNVA346Co9TA4FTfaHqhCsLK1ktRRkA8Qg==" saltValue="O5u8zDXD9kzCSeuLHEgaJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33951,7 +33960,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2HRKReaaZU/JmppBIByWs50FCSCvXB9dUJ13tle8a8X9CKD4hz3SOp6+eVfmSPZNHc0SEhMjvBd553Y4jBcyWA==" saltValue="J4X0Of4f+wcEJ9bFrd5d0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v8nFNLDBl1kRnciwb+AJbPrN0RpSs0rFj8sDdg9Qen6d0/A/XiCWXZUe1gS1R3I24V1jgg+n2GD8ty3fsC0uuw==" saltValue="uB1jhCtgkD5DhkOvQyolJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -34071,7 +34080,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E0lFu8DnBZfXSupDZMMeEpjm25ywkIOpuWEbJe0bOU+2awyZCHbPpfDTgIPGQjqMY+74x1qdpxEK8TgUr4KX3A==" saltValue="6SE4uOdLt9RP273PpDBfWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hYznjohbaRuipMWQopDeH7mt2DFCFdSfO8V6UeUC6VnlNSLgLYj6ZTOc7bPlOLjjBWyExBNaTJXoHuyr9GU4pQ==" saltValue="eft+UP++28bPUJCKOoaO6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -34279,7 +34288,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vCyV+1biBiVAbQ3Ly4HdRr2jGgdhKR0n6CsavF0/OwEHaMIRfzq05WEh64Rsu08xFnWX9mSVklfWweZ3FA/yiw==" saltValue="2Vbdf1Pg/gRfPA6Tj2Zejg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ve1V0tm9DFo4ZYP+XJ93/B/1myTbBsGbSktGNffMZi2jS330JSqW2uFvPMnQsGrZiMdcIBFYfUbG3FtY7BG0DA==" saltValue="bOfS6MM4TTEQ/cKvOO6+Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait"/>
 </worksheet>
@@ -34361,7 +34370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7D0mBN8J9e4iOlHphCDvkLocGWCi+qMvstyXAiJ/TwuWTqCSncZBfYhcBPTYq/mpS7HXmEpT/Fg6lg1pmHgsKg==" saltValue="P6PgXvkBYHqU82Ry0wxaSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8KBfYVrJu2bX23fZSJy4azv6fX/4bvWCWNnTzmYXPPEOh2cpi1anVn3MY6qmxrLKjVOlkLXkAhrMcbhqpd+3Gg==" saltValue="2Sa+Pnsf4Af+uDrt8ezHkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34622,7 +34631,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ENgGoaoeZZFZhfYusApS/h17v9ZhtUROsuHdep3EFDoyFEh8+eEsqmd075PiuQ12mVWFSmvTEMdN/TFEoiymBA==" saltValue="xLj3nJngA7mrEL7Su51p7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1BwFnvMZzuBtKeWvasOBpriHvXz2Ll0NSxwJJcnHHeOKjuKL3Vq3eSg53tp9n9Njts73tYfa+Hxce6Y59XPsvA==" saltValue="JhUxRJm5s84UWo9KfuEqzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34686,7 +34695,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jFR9wEPtCWRgN0352G0jz9RDbxlUwZA/YIHZ+8Bn0o0/TOyu+WovStW8qj66o94I126RU0rVLTROQraln3SePQ==" saltValue="AaFln+yxs5EPklVaRDmTuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+lP4nyOnBsQolSsRKB4P6tURzbKz+joDwRLQ8oE+84dBLdk0xx9rZMAXP2xtouFd1veQzPmn8/wlDtMQP9V80g==" saltValue="gAEmi+RrLDPzzjqqvxkQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/LiST countries/BGD_databook.xlsx
+++ b/inputs/fr/LiST countries/BGD_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\LiST countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4F0AD5-ED9C-4EB2-A36B-2907B651EC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E573D371-7D61-4678-ADF5-52AD2567D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1969,16 +1969,16 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Enfant 1-5 mois</t>
+    <t>1-5 mois</t>
   </si>
   <si>
-    <t>Enfant 6-11 mois</t>
+    <t>6-11 mois</t>
   </si>
   <si>
-    <t>Enfant 12-23 mois</t>
+    <t>12-23 mois</t>
   </si>
   <si>
-    <t>Enfant 24-59 mois</t>
+    <t>24-59 mois</t>
   </si>
   <si>
     <t>Femmes enceintes</t>
@@ -2008,7 +2008,7 @@
     <t>Causes indirectes</t>
   </si>
   <si>
-    <t>Enfant &lt;1 mois</t>
+    <t>&lt;1 mois</t>
   </si>
   <si>
     <t>État</t>
@@ -2704,7 +2704,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2817,6 +2817,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2957,7 +2963,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3198,6 +3204,9 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3633,7 +3642,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="43">
-        <v>14350947.75</v>
+        <v>14594900.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3905,7 +3914,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="45">
-        <v>3.1128200000000002E-2</v>
+        <v>2.3352000000000001E-2</v>
       </c>
       <c r="D45" s="12"/>
     </row>
@@ -3914,7 +3923,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="45">
-        <v>0.10850070000000001</v>
+        <v>0.1540832</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -3923,7 +3932,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="45">
-        <v>0.3649075</v>
+        <v>0.34354990000000002</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -3933,7 +3942,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="46">
-        <v>0.4954636</v>
+        <v>0.47901490000000002</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4037,7 +4046,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M6uhJCPwRPA5w3Z/NliJn9fzB5UNjtH3fGDnNQKw2hNI5rYlxIkhVTx1/J2d1/W9jtj6Fcapd7mbnH+U3iBBaA==" saltValue="YI8gQOVUzGK6uBNclPuE5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gg1PdtG3aLhGHS5kc9C57XFyuMuA0IA+2ofNP0aUviUDCxckWLtywTKPXWM5fbQ2sPcr1utZIAsXrgxju2/A5Q==" saltValue="f0CZIYOWMScXS4WQjBBaHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -4051,8 +4060,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4097,7 +4106,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="45">
-        <v>0.28596946875163098</v>
+        <v>0.21814445003833299</v>
       </c>
       <c r="C2" s="98">
         <v>0.95</v>
@@ -4281,7 +4290,7 @@
         <v>176</v>
       </c>
       <c r="B10" s="45">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="98">
         <v>0.95</v>
@@ -4304,7 +4313,7 @@
         <v>177</v>
       </c>
       <c r="B11" s="98">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="98">
         <v>0.95</v>
@@ -4327,7 +4336,7 @@
         <v>178</v>
       </c>
       <c r="B12" s="98">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="98">
         <v>0.95</v>
@@ -4350,7 +4359,7 @@
         <v>179</v>
       </c>
       <c r="B13" s="98">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="98">
         <v>0.95</v>
@@ -4373,7 +4382,7 @@
         <v>180</v>
       </c>
       <c r="B14" s="45">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="98">
         <v>0.95</v>
@@ -4396,7 +4405,7 @@
         <v>181</v>
       </c>
       <c r="B15" s="98">
-        <v>8.9297882234813594E-2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="98">
         <v>0.95</v>
@@ -4419,7 +4428,7 @@
         <v>182</v>
       </c>
       <c r="B16" s="45">
-        <v>0</v>
+        <v>0.33132871592733198</v>
       </c>
       <c r="C16" s="98">
         <v>0.95</v>
@@ -4442,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="B17" s="98">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="C17" s="98">
         <v>0.95</v>
@@ -4534,7 +4543,7 @@
         <v>184</v>
       </c>
       <c r="B21" s="45">
-        <v>0.5339642</v>
+        <v>0.4919498444</v>
       </c>
       <c r="C21" s="98">
         <v>0.95</v>
@@ -4580,7 +4589,7 @@
         <v>186</v>
       </c>
       <c r="B23" s="98">
-        <v>0</v>
+        <v>6.1071805950000002E-2</v>
       </c>
       <c r="C23" s="98">
         <v>0.95</v>
@@ -4603,7 +4612,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="45">
-        <v>0.26453798566733999</v>
+        <v>0.374323912647746</v>
       </c>
       <c r="C24" s="98">
         <v>0.95</v>
@@ -4672,7 +4681,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="45">
-        <v>0.125814971322258</v>
+        <v>0.195494891600906</v>
       </c>
       <c r="C27" s="98">
         <v>0.95</v>
@@ -4695,7 +4704,7 @@
         <v>191</v>
       </c>
       <c r="B28" s="45">
-        <v>0</v>
+        <v>0.7235809326</v>
       </c>
       <c r="C28" s="98">
         <v>0.95</v>
@@ -4718,7 +4727,7 @@
         <v>192</v>
       </c>
       <c r="B29" s="45">
-        <v>0.48233242717701902</v>
+        <v>0</v>
       </c>
       <c r="C29" s="98">
         <v>0.95</v>
@@ -4764,7 +4773,7 @@
         <v>161</v>
       </c>
       <c r="B31" s="45">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="C31" s="98">
         <v>0.95</v>
@@ -4787,7 +4796,7 @@
         <v>193</v>
       </c>
       <c r="B32" s="45">
-        <v>6.1071805950000002E-2</v>
+        <v>0.59965789999999997</v>
       </c>
       <c r="C32" s="98">
         <v>0.95</v>
@@ -4833,7 +4842,7 @@
         <v>195</v>
       </c>
       <c r="B34" s="45">
-        <v>0</v>
+        <v>0.48233242717701902</v>
       </c>
       <c r="C34" s="98">
         <v>0.95</v>
@@ -4879,7 +4888,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="45">
-        <v>0.4919498444</v>
+        <v>0</v>
       </c>
       <c r="C36" s="98">
         <v>0.95</v>
@@ -4925,7 +4934,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="45">
-        <v>0</v>
+        <v>0.4358744812</v>
       </c>
       <c r="C38" s="98">
         <v>0.95</v>
@@ -4948,7 +4957,7 @@
         <v>200</v>
       </c>
       <c r="B39" s="45">
-        <v>0.14902595466530599</v>
+        <v>0.33847408289999997</v>
       </c>
       <c r="C39" s="98">
         <v>0.95</v>
@@ -4967,7 +4976,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uj/iN2P/UaeSvR9iLQJFKTXwh8GI9UcbsxlvovGK5TIrkmlwLvcI3vRaCqe1RydHoHUonTFnB1gQuQmOLOr4oA==" saltValue="5w/zPeOMZoR0F0StCnS6Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8IwC+/6XZGjl1TA+tIlHD8gK9xk6t3O8wLMb4HIR4Is74CTrLPPNKO6BInAnwee571fzLLAFpSuuQu5yMxcfMQ==" saltValue="O/4CQMiSldZvUkYCiMNKSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5117,7 +5126,7 @@
       <c r="C20" s="58"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pd4z2rHJpN8fv+JhGmeOEf4JZb3pvmzTudr5aOAGkZUX8K+7SddVi/XOMGHKDB9PYYVwrD5wb9SoJbVKcUQFRg==" saltValue="YJ+2Wr6kq2p95MieMxyD6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0RWQK4Xx0Qh0VQNeg80K3Z578d205/fVzJAcdkVxoE8niGT2Zu5FYznqEBuzq39tZlqH9Cxvj9NhR3Giy42NCQ==" saltValue="itc/760/Z1/XbUkBKljjEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5218,7 +5227,7 @@
       <c r="A19" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L3/kbZ/aQURdsZBzT3jWDOuixsKzD3oJTrMoAdf8yMyjOlsB0ywpdHFdhI+gSVQfCo4RqCsijw50brjy46orbA==" saltValue="FHMSqJE8OCNW8VFEy0clLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aM1I/+iPTZobRqVHVzfz+vfoKBjtDZN7DUsQiAFdU5PYZ5yXQBMb7AlD70EPmNSK/CRQyqpJNTrPdx9/iCgLPA==" saltValue="8fAqtf++k+FevyswFXVpog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5333,7 +5342,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eQ45Uy5bCNPbe2m6ueEdyqEaQ5k2b/6M5H7r8vs1nYJlvlLGsaTPjS0ZI8yvlpe58SnXgUSE4b9Tj9Ybl17h0g==" saltValue="qpndefZHHWaNDW3GAprfuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eycqFkJMgzx6bYSaUksuipRHg/EHGoCbn1mE0A+Puu1y5PSet9RHQ6wcc3BWkRZqjiaTSZ73ajrsSPF18LiHSQ==" saltValue="8oHuoHIjKmtZMZDFcWh+PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7094,7 +7103,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ke6Jp8pEMikqHo+AFQuFaTtN3tppSsav3a/aiKEkQOuZtjFbEergEntc9HbaEdCBfGatxHR1RlpsW2eoGQt5Bg==" saltValue="p62eIhBFjHeu4nRjOoaQfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qm9D4WgPvuvO9PlMVaEkJ5geOU9ZVzajYsLLTkeRY96GKpIvNx/1xB0aeTJlzNj0HCMOAxhg6jUplOwu4bQmiQ==" saltValue="MJMZF4zPR2hcnNU1X3620g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7129,7 +7138,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+WrISmVrJbRuw6NceHrmLiBhBYkbpUY3rFovH8W9Xc5Mxukv2WL8GUPG3hEriZz0LmQqM6aUBBkMS2FZE1X4tQ==" saltValue="wjW2EcnmuZmYNihywtBx5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YVkhuXg0t7Hv2e9ZNsTnDsT3FHSGD2cVB8KF3x/0hw3s/PALyllkwvqlBE1ip1O44AO+JR/pqBaqhH0IUddRTw==" saltValue="3MeYmbWacQqWhQFFlA0wOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7335,7 +7344,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CHvgRSwD2g/mp3fIZfC/Q5m2Lv5GloEUXk4nNj4wZ7sBNzZKOsnGk2XPAzjBS8R3AZ74dMM+0wmjqAWkiK94CA==" saltValue="L5eAE7+wEnYsgq5kzew2OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2t4qP2DCZpZpyLVsOKJEYBnP28vxxNTrs+MFBJCgq/vepzDqEOrkqlFdwOR3QAegkMDzPCRZ3x74UQlxGsakRA==" saltValue="ayN8chixpWrhIFQtbHy0VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9150,7 +9159,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bOe4ggkpi5suJQ1QTqnsgNrsLMuP0c+pYlWLf6qrbZ9cMSVxAc2Anh3mV2unUJz1vn+BS5077cgKjvcaR3t1lw==" saltValue="1oLHMbC2zhQjjhRyZHdGJw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eMVDSmQOPQgetLqFcv1cI/dVR90D9nhbnNj8DX43usPvIJdiT/bN/dJQIr7F5epMEUBXuZs5ure/EczZNksNhg==" saltValue="/0/RC6bCFuK95LeWLM+9fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9918,7 +9927,7 @@
       <c r="K39" s="87"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O8zHoPVs8NLgi4iI4lQ6YVfsQLCKjYZqzHVMf8o1SoycRTQycYkTwrjb03Fdk8mDS3pDVUltvBrNnECMHZGdtQ==" saltValue="fqDDKeviKk5F2SRs3sV+vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1PCvoR2v1/noLVXqRjFKrwZlXC/Z+j9yD7T0W4DdPfYBp5z10hR1SyRbxzMC3ayK17F7pVEEx9fj3zI14QtGwQ==" saltValue="Xj3fHKOF6lWu9vnCHu0eHA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10293,7 +10302,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CURzbGbpGoM/AH7z2tIAVOsWB9dOB6q1jzckkc7NG+1Iok5EVuKrV5YjMTdFMiaVgPn4E0fa49JrnAJcyQWNYQ==" saltValue="/YNuW7vArGtQTh7FOqB8XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QEeSFASs/PeJV5o/YxeWne8bzLB6lTXC+m9awxNcmvjHLe/EYnd8cQjftvAzcKCelC65F/sGj7QTbsYyOSN1+A==" saltValue="ctO2NLbfyC2d8nrA5fQ6Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11109,7 +11118,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+NN69vw9G3pwGxsAu30G83tZngXut7Tqxar6wkmgJdF1Zw87Ohm147iiRESuOg3+MMbr5TBaiNmONr8//vQF8Q==" saltValue="IqYWq8ANlx8jqOwCjL0vEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6vDHrnTXO1mEW8Uf2GEjpESO4VdaGX3YbDBeRGO68N4vwOr8yrMdDt6Uzn60yjfxiFqlIr6KG/JtUah/7i94/g==" saltValue="od7T0qk24T9+cH91qclA+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B18:I40 B17:C17 E17:I17 B2:I16">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -11171,7 +11180,7 @@
       <c r="A2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -11194,7 +11203,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="8" t="s">
         <v>154</v>
       </c>
@@ -11216,7 +11225,7 @@
       <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>155</v>
       </c>
@@ -11238,7 +11247,7 @@
       <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -11262,7 +11271,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="8" t="s">
         <v>154</v>
       </c>
@@ -11283,7 +11292,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>155</v>
       </c>
@@ -11304,7 +11313,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -11327,7 +11336,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="8" t="s">
         <v>154</v>
       </c>
@@ -11348,7 +11357,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="8" t="s">
         <v>155</v>
       </c>
@@ -11369,7 +11378,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -11392,7 +11401,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="8" t="s">
         <v>154</v>
       </c>
@@ -11413,7 +11422,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="8" t="s">
         <v>155</v>
       </c>
@@ -11434,7 +11443,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -11457,7 +11466,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="8" t="s">
         <v>154</v>
       </c>
@@ -11478,7 +11487,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>155</v>
       </c>
@@ -11532,7 +11541,7 @@
       <c r="A19" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -11555,7 +11564,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="8" t="s">
         <v>154</v>
       </c>
@@ -11576,7 +11585,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>155</v>
       </c>
@@ -11597,7 +11606,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -11620,7 +11629,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="8" t="s">
         <v>154</v>
       </c>
@@ -11641,7 +11650,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="8" t="s">
         <v>155</v>
       </c>
@@ -11662,7 +11671,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -11685,7 +11694,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="8" t="s">
         <v>154</v>
       </c>
@@ -11706,7 +11715,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="8" t="s">
         <v>155</v>
       </c>
@@ -11727,7 +11736,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -11750,7 +11759,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="8" t="s">
         <v>154</v>
       </c>
@@ -11771,7 +11780,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="8" t="s">
         <v>155</v>
       </c>
@@ -11792,7 +11801,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -11815,7 +11824,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="8" t="s">
         <v>154</v>
       </c>
@@ -11836,7 +11845,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="8" t="s">
         <v>155</v>
       </c>
@@ -11890,7 +11899,7 @@
       <c r="A36" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -11913,7 +11922,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="8" t="s">
         <v>154</v>
       </c>
@@ -11934,7 +11943,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="8" t="s">
         <v>155</v>
       </c>
@@ -11955,7 +11964,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -11978,7 +11987,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="8" t="s">
         <v>154</v>
       </c>
@@ -11999,7 +12008,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="8" t="s">
         <v>155</v>
       </c>
@@ -12020,7 +12029,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -12043,7 +12052,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="8" t="s">
         <v>154</v>
       </c>
@@ -12064,7 +12073,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="8" t="s">
         <v>155</v>
       </c>
@@ -12085,7 +12094,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -12108,7 +12117,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="8" t="s">
         <v>154</v>
       </c>
@@ -12129,7 +12138,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="103"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="8" t="s">
         <v>155</v>
       </c>
@@ -12150,7 +12159,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -12173,7 +12182,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="8" t="s">
         <v>154</v>
       </c>
@@ -12194,7 +12203,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="103"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="8" t="s">
         <v>155</v>
       </c>
@@ -12279,7 +12288,7 @@
       <c r="A55" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -12307,7 +12316,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="103"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="8" t="s">
         <v>154</v>
       </c>
@@ -12333,7 +12342,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="103"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="8" t="s">
         <v>155</v>
       </c>
@@ -12359,7 +12368,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -12387,7 +12396,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="103"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="8" t="s">
         <v>154</v>
       </c>
@@ -12413,7 +12422,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="103"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="8" t="s">
         <v>155</v>
       </c>
@@ -12439,7 +12448,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -12467,7 +12476,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="103"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -12493,7 +12502,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="103"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="8" t="s">
         <v>155</v>
       </c>
@@ -12519,7 +12528,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -12547,7 +12556,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="103"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="8" t="s">
         <v>154</v>
       </c>
@@ -12573,7 +12582,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="103"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="8" t="s">
         <v>155</v>
       </c>
@@ -12599,7 +12608,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -12627,7 +12636,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="8" t="s">
         <v>154</v>
       </c>
@@ -12653,7 +12662,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="103"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="8" t="s">
         <v>155</v>
       </c>
@@ -12717,7 +12726,7 @@
       <c r="A72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -12745,7 +12754,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="103"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="8" t="s">
         <v>154</v>
       </c>
@@ -12771,7 +12780,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="103"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="8" t="s">
         <v>155</v>
       </c>
@@ -12797,7 +12806,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -12825,7 +12834,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="103"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="8" t="s">
         <v>154</v>
       </c>
@@ -12851,7 +12860,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="103"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="8" t="s">
         <v>155</v>
       </c>
@@ -12877,7 +12886,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -12905,7 +12914,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="103"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="8" t="s">
         <v>154</v>
       </c>
@@ -12931,7 +12940,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="103"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
@@ -12957,7 +12966,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -12985,7 +12994,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="103"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="8" t="s">
         <v>154</v>
       </c>
@@ -13011,7 +13020,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="103"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="8" t="s">
         <v>155</v>
       </c>
@@ -13037,7 +13046,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -13065,7 +13074,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="103"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="8" t="s">
         <v>154</v>
       </c>
@@ -13091,7 +13100,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="103"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="8" t="s">
         <v>155</v>
       </c>
@@ -13155,7 +13164,7 @@
       <c r="A89" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -13183,7 +13192,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="103"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="8" t="s">
         <v>154</v>
       </c>
@@ -13209,7 +13218,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="103"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="8" t="s">
         <v>155</v>
       </c>
@@ -13235,7 +13244,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -13263,7 +13272,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="103"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="8" t="s">
         <v>154</v>
       </c>
@@ -13289,7 +13298,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="103"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="8" t="s">
         <v>155</v>
       </c>
@@ -13315,7 +13324,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -13343,7 +13352,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="103"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="8" t="s">
         <v>154</v>
       </c>
@@ -13369,7 +13378,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="103"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="8" t="s">
         <v>155</v>
       </c>
@@ -13395,7 +13404,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="102" t="s">
+      <c r="B98" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -13423,7 +13432,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="103"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="8" t="s">
         <v>154</v>
       </c>
@@ -13449,7 +13458,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="103"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="8" t="s">
         <v>155</v>
       </c>
@@ -13475,7 +13484,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="102" t="s">
+      <c r="B101" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -13503,7 +13512,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="103"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="8" t="s">
         <v>154</v>
       </c>
@@ -13529,7 +13538,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="103"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="8" t="s">
         <v>155</v>
       </c>
@@ -13624,7 +13633,7 @@
       <c r="A108" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="102" t="s">
+      <c r="B108" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -13652,7 +13661,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="103"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="8" t="s">
         <v>154</v>
       </c>
@@ -13678,7 +13687,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="103"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="8" t="s">
         <v>155</v>
       </c>
@@ -13704,7 +13713,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -13732,7 +13741,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="103"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="8" t="s">
         <v>154</v>
       </c>
@@ -13758,7 +13767,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="103"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="8" t="s">
         <v>155</v>
       </c>
@@ -13784,7 +13793,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="102" t="s">
+      <c r="B114" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -13812,7 +13821,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="103"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="8" t="s">
         <v>154</v>
       </c>
@@ -13838,7 +13847,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="103"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="8" t="s">
         <v>155</v>
       </c>
@@ -13864,7 +13873,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -13892,7 +13901,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="103"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="8" t="s">
         <v>154</v>
       </c>
@@ -13918,7 +13927,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="103"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="8" t="s">
         <v>155</v>
       </c>
@@ -13944,7 +13953,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -13972,7 +13981,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="103"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="8" t="s">
         <v>154</v>
       </c>
@@ -13998,7 +14007,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="103"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="8" t="s">
         <v>155</v>
       </c>
@@ -14062,7 +14071,7 @@
       <c r="A125" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="102" t="s">
+      <c r="B125" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -14090,7 +14099,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="103"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="8" t="s">
         <v>154</v>
       </c>
@@ -14116,7 +14125,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="103"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="8" t="s">
         <v>155</v>
       </c>
@@ -14142,7 +14151,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="102" t="s">
+      <c r="B128" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -14170,7 +14179,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="103"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="8" t="s">
         <v>154</v>
       </c>
@@ -14196,7 +14205,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="103"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="8" t="s">
         <v>155</v>
       </c>
@@ -14222,7 +14231,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="102" t="s">
+      <c r="B131" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -14250,7 +14259,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="103"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="8" t="s">
         <v>154</v>
       </c>
@@ -14276,7 +14285,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="103"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="8" t="s">
         <v>155</v>
       </c>
@@ -14302,7 +14311,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="102" t="s">
+      <c r="B134" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -14330,7 +14339,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="103"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="8" t="s">
         <v>154</v>
       </c>
@@ -14356,7 +14365,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="103"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="8" t="s">
         <v>155</v>
       </c>
@@ -14382,7 +14391,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="102" t="s">
+      <c r="B137" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -14410,7 +14419,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="103"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="8" t="s">
         <v>154</v>
       </c>
@@ -14436,7 +14445,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="103"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="8" t="s">
         <v>155</v>
       </c>
@@ -14500,7 +14509,7 @@
       <c r="A142" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="102" t="s">
+      <c r="B142" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -14528,7 +14537,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="103"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="8" t="s">
         <v>154</v>
       </c>
@@ -14554,7 +14563,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="103"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="8" t="s">
         <v>155</v>
       </c>
@@ -14580,7 +14589,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="102" t="s">
+      <c r="B145" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -14608,7 +14617,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="103"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="8" t="s">
         <v>154</v>
       </c>
@@ -14634,7 +14643,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="103"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="8" t="s">
         <v>155</v>
       </c>
@@ -14660,7 +14669,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="102" t="s">
+      <c r="B148" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -14688,7 +14697,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="103"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="8" t="s">
         <v>154</v>
       </c>
@@ -14714,7 +14723,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="103"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="8" t="s">
         <v>155</v>
       </c>
@@ -14740,7 +14749,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="102" t="s">
+      <c r="B151" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -14768,7 +14777,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="103"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="8" t="s">
         <v>154</v>
       </c>
@@ -14794,7 +14803,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="103"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="8" t="s">
         <v>155</v>
       </c>
@@ -14820,7 +14829,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="102" t="s">
+      <c r="B154" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -14848,7 +14857,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="103"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="8" t="s">
         <v>154</v>
       </c>
@@ -14874,7 +14883,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="103"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="8" t="s">
         <v>155</v>
       </c>
@@ -14928,7 +14937,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rbfDzXLpi4qK9AVG4QGJZJKXkrqaEBxbajfABtzhPSng6y+d4KnB/G6RnjkguRbk0Vfacovd0m/xV2sZtuuKlw==" saltValue="pBBPOtDjx0hGlDAe8WNSyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a04Y6ie5z10UQiZckK5WXe9plbYGYHS5W9U5LsbDHO64vvyFrmy4/sVRny+Oiu+3C+fhiNWC6UY7NnVUKy7PbQ==" saltValue="HbEijOHjhOHI+9i2y1MWxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16195,7 +16204,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yIW7EU62C17Yw3zi50uKG9Oe75iym9eWF6VFOdDpSuvDoPv1QW8nWuj/CxxenB4jVdK5xvpnijmmANsjejWBGA==" saltValue="REEXMNp92YREva2gkQkX4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+GGg1YvEe11Dw9LLdLDrFGRpEHZSZSqDHmWCPEIGRmwMmwC2EKLnO6UjpE5OuUWrasQEz6mO8At6rpv/E8CF8Q==" saltValue="LkDjip8Q9T36dcDPit1Zcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24334,7 +24343,7 @@
       <c r="I328" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aD+ebdbJwj4K4s5he+esKgTo8d4hlo9V8i7Zs6HF7L+4OxhUYtE7UBzPe1XI5A/ejPLGqidUdKUumLSBqVyyuQ==" saltValue="8JqGXt/RaLQ6R5KwDCreQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HKgAC54QdvSRpXkponD7GgGKNPS51AhtF4tUfdYQbOPpcRWZB70OoYwwQmrygYZwILPZ/Ua2T+Bta4mZEnGaPg==" saltValue="P+9GG0yvrioQYKEr/aEhBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25424,7 +25433,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eYtIbl8zI01HhXSyUxK4R7epm0g/Qr3ktGQjXxHG1IQR2BlT3P8+oO8TtRuiM0QHlxFtzw616Zyq8qKPUtL0Bg==" saltValue="0wT4RIeiw5RLpX9jopH7+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KvW+mp/xOPVHz/wSeQiRgqzxzA+M3QV26yfDBlmX9Z34EeIvDz7a687egh94EolrQpCoP/x43DyAPs6y//8whw==" saltValue="ERdODHejod60KyKnkC606A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -26296,7 +26305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F5VAbSsHOnumvUsss7g5qW94uUse0O97HShhBw48Zr0CAALrQv2ylZmBhhDmPgeTe0+SZSnP12EZSKLS4JtIdA==" saltValue="3iaPUUZQbA3meLssUqA2MQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x1QTfbpsmEBGh2EaCR1xx2Z8NIe6dws2x8VFjZNrOZ9oZ2FOcBDRsFJnchMvy9YAwsZfKpeKViwzZh7nGXQ5oA==" saltValue="vKv1QwURN4fJw+9vZ89WYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -29181,7 +29190,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gi2CyHHvrNzt/FcNub9D6cd4yGdZR0COzlHmMwKaRXjrU0rhEdw67JcckgxOcraAeEM7HM4qiwlcwnzE1lhZvA==" saltValue="MXFLw2C+Xcx7HSIzLdXgBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fgkfjjsgEakOMhJxINfqI4E0x2TbUGb9zhTwDWl3zPdj09zcUv5dBdwlNh9WiBi8Ikwo6TKlrpUhBPkhwUSKRA==" saltValue="85shoIDBUZbvfgh6rdEXVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -29463,7 +29472,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AI+zYfUSH8gRREpLroZHdLXAemmMTvdsY3RDl5AxOph7a7+ReV7dBeuz1dE4gOX/X/pfF5oq293cPhXyOXp4/Q==" saltValue="2hFSgQFt5+bHs+YaMen5iA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y/td06eJ3K2XtGj3v4zqN7Oi38C9D9w6rt6mOLrB4ZZl4wYdpVoW/EOoj+HIDWwndBeDPg56PYad+dC8S2pPtg==" saltValue="yQ0gp6vjWa0qL81Hz34/Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -33578,7 +33587,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0a2dK6YuromWmLQOZ2QXznEBEiQ0vvM1mvlBKi5HCLGgt1DnzS026EqBKphb+pjW6cuoav/FqN1b9MJuu43+lw==" saltValue="BIH4syWK1ke3f2Wk16cdWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i6RSRfugSMOVzx8L0O9ZFNGdOm1/Y0CqCD233NzjaTx4O5MTG0dqwucEh2uJ2IKmA9RZBWTnAySgqo43ccTglw==" saltValue="H9/Th6UINUWJuvv2skAd8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -34094,7 +34103,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ELfOW2GrGgtosymzt9UGhn9EcvOUIvloD+x7AotaOi8oEB3cDs9/hF5p2R1o+ThGrejH/HmImzqdTCEoQx/Wvw==" saltValue="GDbBNvhkKYG8G5rXim2i6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IklhBY4gDoSkNQHmUVP5ZF4ynp3T6vCx0aBJYGUKnuVFMA2SrhuZ/3edm5vJQT+LUQuMFCqJPCDxzhvUOf31pQ==" saltValue="NA7RH7+n8IoDMtf63xRuXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34106,8 +34115,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34234,16 +34243,16 @@
       <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="102" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="19"/>
@@ -34253,16 +34262,16 @@
         <v>87</v>
       </c>
       <c r="C14" s="55">
-        <v>0.1612427049099808</v>
+        <v>0.16124302819795369</v>
       </c>
       <c r="D14" s="55">
-        <v>0.1612427049099808</v>
+        <v>0.16124302819795369</v>
       </c>
       <c r="E14" s="55">
-        <v>0.1612427049099808</v>
+        <v>0.16124302819795369</v>
       </c>
       <c r="F14" s="55">
-        <v>0.1612427049099808</v>
+        <v>0.16124302819795369</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34270,16 +34279,16 @@
         <v>88</v>
       </c>
       <c r="C15" s="101">
-        <v>0.22920897002397919</v>
+        <v>0.22920942958277449</v>
       </c>
       <c r="D15" s="101">
-        <v>0.22920897002397919</v>
+        <v>0.22920942958277449</v>
       </c>
       <c r="E15" s="101">
-        <v>0.22920897002397919</v>
+        <v>0.22920942958277449</v>
       </c>
       <c r="F15" s="101">
-        <v>0.22920897002397919</v>
+        <v>0.22920942958277449</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34287,16 +34296,16 @@
         <v>89</v>
       </c>
       <c r="C16" s="101">
-        <v>2.0140962334110168E-2</v>
+        <v>2.0141002716283649E-2</v>
       </c>
       <c r="D16" s="101">
-        <v>2.0140962334110168E-2</v>
+        <v>2.0141002716283649E-2</v>
       </c>
       <c r="E16" s="101">
-        <v>2.0140962334110168E-2</v>
+        <v>2.0141002716283649E-2</v>
       </c>
       <c r="F16" s="101">
-        <v>2.0140962334110168E-2</v>
+        <v>2.0141002716283649E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34304,16 +34313,16 @@
         <v>90</v>
       </c>
       <c r="C17" s="101">
-        <v>4.3467124656830398E-2</v>
+        <v>4.3467211807431301E-2</v>
       </c>
       <c r="D17" s="101">
-        <v>4.3467124656830398E-2</v>
+        <v>4.3467211807431301E-2</v>
       </c>
       <c r="E17" s="101">
-        <v>4.3467124656830398E-2</v>
+        <v>4.3467211807431301E-2</v>
       </c>
       <c r="F17" s="101">
-        <v>4.3467124656830398E-2</v>
+        <v>4.3467211807431301E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34321,16 +34330,16 @@
         <v>91</v>
       </c>
       <c r="C18" s="101">
-        <v>2.2298962987604811E-5</v>
+        <v>2.2299007696520739E-5</v>
       </c>
       <c r="D18" s="101">
-        <v>2.2298962987604811E-5</v>
+        <v>2.2299007696520739E-5</v>
       </c>
       <c r="E18" s="101">
-        <v>2.2298962987604811E-5</v>
+        <v>2.2299007696520739E-5</v>
       </c>
       <c r="F18" s="101">
-        <v>2.2298962987604811E-5</v>
+        <v>2.2299007696520739E-5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34338,16 +34347,16 @@
         <v>92</v>
       </c>
       <c r="C19" s="101">
-        <v>1.4633209641784189E-2</v>
+        <v>1.46332389810382E-2</v>
       </c>
       <c r="D19" s="101">
-        <v>1.4633209641784189E-2</v>
+        <v>1.46332389810382E-2</v>
       </c>
       <c r="E19" s="101">
-        <v>1.4633209641784189E-2</v>
+        <v>1.46332389810382E-2</v>
       </c>
       <c r="F19" s="101">
-        <v>1.4633209641784189E-2</v>
+        <v>1.46332389810382E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34355,16 +34364,16 @@
         <v>93</v>
       </c>
       <c r="C20" s="101">
-        <v>5.2430523545223288E-4</v>
+        <v>5.2230130931349102E-4</v>
       </c>
       <c r="D20" s="101">
-        <v>5.2430523545223288E-4</v>
+        <v>5.2230130931349102E-4</v>
       </c>
       <c r="E20" s="101">
-        <v>5.2430523545223288E-4</v>
+        <v>5.2230130931349102E-4</v>
       </c>
       <c r="F20" s="101">
-        <v>5.2430523545223288E-4</v>
+        <v>5.2230130931349102E-4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34372,16 +34381,16 @@
         <v>94</v>
       </c>
       <c r="C21" s="101">
-        <v>0.1669390285293651</v>
+        <v>0.1669393632383378</v>
       </c>
       <c r="D21" s="101">
-        <v>0.1669390285293651</v>
+        <v>0.1669393632383378</v>
       </c>
       <c r="E21" s="101">
-        <v>0.1669390285293651</v>
+        <v>0.1669393632383378</v>
       </c>
       <c r="F21" s="101">
-        <v>0.1669390285293651</v>
+        <v>0.1669393632383378</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34389,16 +34398,16 @@
         <v>95</v>
       </c>
       <c r="C22" s="101">
-        <v>0.3638213957055102</v>
+        <v>0.36382212515917078</v>
       </c>
       <c r="D22" s="101">
-        <v>0.3638213957055102</v>
+        <v>0.36382212515917078</v>
       </c>
       <c r="E22" s="101">
-        <v>0.3638213957055102</v>
+        <v>0.36382212515917078</v>
       </c>
       <c r="F22" s="101">
-        <v>0.3638213957055102</v>
+        <v>0.36382212515917078</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -34531,7 +34540,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lib08iHjQTTC+qS4xw+SxgGNLzeCRb63HB3PVhI8LiP7q8owsZaPnm8/e0At1L0aoR2fbrCnNn0FfGHtJ9INsQ==" saltValue="BZ4B7RbrNA283DPluYReoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1QMg8eoOFVOcbtPhQORm+8e6jDzMlIJ26GcSHIiHD2rExPO+sHdPzxj9OCiz+ncqRLjs3Q1xuSNiPvFnDKrn4g==" saltValue="5B6j1WxdV58OmhG3kcKAAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -34955,7 +34964,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GMuTs2eOhjYrDwIj/0clVb5EcjHfwNW8J6d/uJNzzTe4zJAg/I5DlLFz6LJluhzidmD5K6NrbGQVRL0AbSL7Uw==" saltValue="xKV2yhkjRjDgZmKiCpIzvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ug5bbXiG6YSxEFViBl94ctacOAcOqmVH95Ou1QRV6AE+38ZMgcoUexfInkwvvSsdMJESov/xxMqEg3/8gLshWw==" saltValue="+eReKHeaZVHi1KAc9Ycxnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -34970,7 +34979,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35090,7 +35099,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F193bC+vEFXgBvGUCN2yU00+My0C1ZT5XordKjiCgUKZFZyUMdjiiAKx9RdxM2rLZOV3ziZLzZBwQC8hwjXRfQ==" saltValue="Ysp29XQ70RlE/BXdweWxhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GiHx87LRW5Kj2QadpXe8r4/lC5H1gG4Znrf9brodV5qOzmDRu9eETHtWebiFmAlS08ukFSrQDsqrJnPJVXXsDQ==" saltValue="ogEiu6IdGFGNgh2rzLt92g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -35297,7 +35306,7 @@
       <c r="K14" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M/OflUo5B8xEhmxEiFYcTOvWmut9mWsNIUazjXRxNwmQmP4M56GeL3F8uadwJMcLkYKPl9T9+OJlgzwy43ogdg==" saltValue="Bhlz8hXdYr2LvUQ3b09fHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tXhXEQSHIebSgznzWLolAyiDIy98BdX4/Syu14kmOZZ6Gw6Vb+LWLUcXW8ycl7MtWZ5Z4fyG6hjb4U0fZexvMQ==" saltValue="vtrIzHDIPPuXXr7HC6nLow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait"/>
 </worksheet>
@@ -35377,7 +35386,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ErFGQup7P3zKZPQqTPRqxcNNfF/mJ3SSJ5OrjFeYRKfyCneKeqweHEoyEkKNta2mTVgKks1VPFqc8f6OrMGRsw==" saltValue="hh89z2wI0GpRjUvmzQ9usg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n2mv0VfNlipUKMOJk3SMY2IPpYNINnjRAHkAOLNbZxffNdDk29aMh5HfY0r8UlGEwSXMyl5wS/krQjYK6ePzmA==" saltValue="wkflRPtswauvmjIU9/NdoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -35637,7 +35646,7 @@
       <c r="E21" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y9O62OQ5ua9jn3NIVN9l6Mb4gFN1dKvtc0tiBlCep/uVBE4BV2Ag3ooGZScSG28BNTJSliUEy4U0F0c/XSX2Mg==" saltValue="GlCWoOFZEGLpNtZPryjBWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7rULOOOS6LZuOqklu456CtMMQ1axO1X4L0LzC0P78c9gExFDAkFddyemv37VU6+RD4QRIFULaSZ1HUhx3hkdIw==" saltValue="5n8oxmlxGC1FJl7yEdCC/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -35701,7 +35710,7 @@
       <c r="D3" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LdiwMXYbOsYv1j2RRofcnSciNau8Qpq/aJxQBhjovbNxw0Hiw0Pcl8bQPGsgYgabKej7vxFskTwt1yWyvOZOiA==" saltValue="KF3Fsy66H99jZ4CFEHagNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f9NpCehzbbSPfHwwRQ72kuAI9tlt9wVmnhyMiTFtWjOaJ3nzonV2zLBlQGNn4066VkzBCXhQgSzyvXmWHDl1LQ==" saltValue="dn1ES2D3/PUYSMG1e57PnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>